--- a/PVLT/module_coefficients.xlsx
+++ b/PVLT/module_coefficients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmdevil\Documents\Jupyter Notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341F53D6-873D-406F-BC8F-E09D33CF4F96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6BAA43-D564-44C8-BFB4-8681499EAD1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="2670" windowWidth="21600" windowHeight="11385" xr2:uid="{C5C9D0E0-BDEA-4C04-AF05-9C2A3E34F4E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C5C9D0E0-BDEA-4C04-AF05-9C2A3E34F4E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -658,8 +658,8 @@
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1003,7 @@
         <v>32.479999999999997</v>
       </c>
       <c r="C11">
-        <v>5.72</v>
+        <v>57.72</v>
       </c>
       <c r="D11">
         <v>30.690898450073995</v>

--- a/PVLT/module_coefficients.xlsx
+++ b/PVLT/module_coefficients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmdevil\Documents\Jupyter Notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6BAA43-D564-44C8-BFB4-8681499EAD1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE027753-59E3-4366-B5E6-F5C194A3A0EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C5C9D0E0-BDEA-4C04-AF05-9C2A3E34F4E1}"/>
+    <workbookView xWindow="3900" yWindow="3600" windowWidth="21510" windowHeight="11385" xr2:uid="{C5C9D0E0-BDEA-4C04-AF05-9C2A3E34F4E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -188,9 +188,6 @@
     <t>Adjust</t>
   </si>
   <si>
-    <t>LG Electronics</t>
-  </si>
-  <si>
     <t>320N1K-A5</t>
   </si>
   <si>
@@ -218,9 +215,6 @@
     <t>JKM265P-60</t>
   </si>
   <si>
-    <t>Mission Solar</t>
-  </si>
-  <si>
     <t>MSE300SQ5T</t>
   </si>
   <si>
@@ -248,18 +242,6 @@
     <t>poly-Si PERC</t>
   </si>
   <si>
-    <t>Hanwha Plus</t>
-  </si>
-  <si>
-    <t>Hanwha Peak</t>
-  </si>
-  <si>
-    <t>Canadian Solar 270</t>
-  </si>
-  <si>
-    <t>Canadian Solar 275</t>
-  </si>
-  <si>
     <t>Power</t>
   </si>
   <si>
@@ -294,6 +276,30 @@
   </si>
   <si>
     <t>str_len</t>
+  </si>
+  <si>
+    <t>2020-12-31 23:00:00-07:00</t>
+  </si>
+  <si>
+    <t>2018-05-24 00:00:00-07:00</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>Can270</t>
+  </si>
+  <si>
+    <t>Can275</t>
+  </si>
+  <si>
+    <t>MissionSolar</t>
+  </si>
+  <si>
+    <t>HanQPlus</t>
+  </si>
+  <si>
+    <t>HanQPeak</t>
   </si>
 </sst>
 </file>
@@ -659,7 +665,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -680,31 +686,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -712,31 +718,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
         <v>54</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>55</v>
       </c>
-      <c r="E2" t="s">
-        <v>56</v>
-      </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" t="s">
         <v>60</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
         <v>62</v>
-      </c>
-      <c r="I2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -776,31 +782,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
         <v>66</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>67</v>
       </c>
-      <c r="D4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" t="s">
         <v>68</v>
       </c>
-      <c r="F4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" t="s">
-        <v>70</v>
-      </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -869,7 +875,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B7">
         <v>320</v>
@@ -1285,7 +1291,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B20">
         <v>-3.328148E-3</v>
@@ -2373,7 +2379,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B54">
         <v>24.228999999999999</v>
@@ -2405,7 +2411,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B55">
         <v>7.1820000000000004</v>
@@ -2437,13 +2443,13 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B56" s="2">
         <v>43244</v>
       </c>
-      <c r="C56" s="2">
-        <v>43244</v>
+      <c r="C56" t="s">
+        <v>82</v>
       </c>
       <c r="D56" s="2">
         <v>43130</v>
@@ -2466,13 +2472,13 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B57" s="2">
         <v>44316</v>
       </c>
-      <c r="C57" s="2">
-        <v>44316</v>
+      <c r="C57" t="s">
+        <v>81</v>
       </c>
       <c r="D57" s="2">
         <v>44316</v>
@@ -2498,7 +2504,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B58">
         <v>35.049999999999997</v>
@@ -2530,7 +2536,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B59">
         <v>-106.54</v>
@@ -2562,7 +2568,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B60">
         <v>35</v>
@@ -2594,7 +2600,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B61">
         <v>180</v>
@@ -2626,7 +2632,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B62">
         <v>1600</v>
@@ -2658,7 +2664,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B63">
         <v>12</v>

--- a/PVLT/module_coefficients.xlsx
+++ b/PVLT/module_coefficients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmdevil\Documents\Jupyter Notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE027753-59E3-4366-B5E6-F5C194A3A0EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02FEB15-B73D-4146-93D5-F8A25AD0A10B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3600" windowWidth="21510" windowHeight="11385" xr2:uid="{C5C9D0E0-BDEA-4C04-AF05-9C2A3E34F4E1}"/>
+    <workbookView xWindow="1290" yWindow="2280" windowWidth="21510" windowHeight="11385" xr2:uid="{C5C9D0E0-BDEA-4C04-AF05-9C2A3E34F4E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="197">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -300,6 +300,330 @@
   </si>
   <si>
     <t>HanQPeak</t>
+  </si>
+  <si>
+    <t>str_1_v</t>
+  </si>
+  <si>
+    <t>str_2_v</t>
+  </si>
+  <si>
+    <t>str_2_i</t>
+  </si>
+  <si>
+    <t>str_3_v</t>
+  </si>
+  <si>
+    <t>str_4_v</t>
+  </si>
+  <si>
+    <t>str_1_i</t>
+  </si>
+  <si>
+    <t>str_3_i</t>
+  </si>
+  <si>
+    <t>str_4_i</t>
+  </si>
+  <si>
+    <t>str_1_rtd</t>
+  </si>
+  <si>
+    <t>str_2_rtd</t>
+  </si>
+  <si>
+    <t>str_3_rtd</t>
+  </si>
+  <si>
+    <t>str_4_rtd</t>
+  </si>
+  <si>
+    <t>PH4_V_Avg</t>
+  </si>
+  <si>
+    <t>PH1_V_Avg</t>
+  </si>
+  <si>
+    <t>PH1_I_Avg</t>
+  </si>
+  <si>
+    <t>PH2_I_Avg</t>
+  </si>
+  <si>
+    <t>PH3_I_Avg</t>
+  </si>
+  <si>
+    <t>PH4_I_Avg</t>
+  </si>
+  <si>
+    <t>PH1_RTD_Avg</t>
+  </si>
+  <si>
+    <t>PH2_RTD_Avg</t>
+  </si>
+  <si>
+    <t>PH3_RTD_Avg</t>
+  </si>
+  <si>
+    <t>PH4_RTD_Avg</t>
+  </si>
+  <si>
+    <t>PH2_V_Avg</t>
+  </si>
+  <si>
+    <t>PH3_V_Avg</t>
+  </si>
+  <si>
+    <t>LM1_V_Avg</t>
+  </si>
+  <si>
+    <t>LM2_V_Avg</t>
+  </si>
+  <si>
+    <t>LM3_V_Avg</t>
+  </si>
+  <si>
+    <t>LM4_V_Avg</t>
+  </si>
+  <si>
+    <t>LM1_I_Avg</t>
+  </si>
+  <si>
+    <t>LM2_I_Avg</t>
+  </si>
+  <si>
+    <t>LM3_I_Avg</t>
+  </si>
+  <si>
+    <t>LM4_I_Avg</t>
+  </si>
+  <si>
+    <t>LM1_RTD_Avg</t>
+  </si>
+  <si>
+    <t>LM2_RTD_Avg</t>
+  </si>
+  <si>
+    <t>LM3_RTD_Avg</t>
+  </si>
+  <si>
+    <t>LM4_RTD_Avg</t>
+  </si>
+  <si>
+    <t>CP1_V_Avg</t>
+  </si>
+  <si>
+    <t>CP2_V_Avg</t>
+  </si>
+  <si>
+    <t>CP3_V_Avg</t>
+  </si>
+  <si>
+    <t>CP4_V_Avg</t>
+  </si>
+  <si>
+    <t>CP1_I_Avg</t>
+  </si>
+  <si>
+    <t>CP2_I_Avg</t>
+  </si>
+  <si>
+    <t>CP3_I_Avg</t>
+  </si>
+  <si>
+    <t>CP4_I_Avg</t>
+  </si>
+  <si>
+    <t>CP1_RTD_Avg</t>
+  </si>
+  <si>
+    <t>CP2_RTD_Avg</t>
+  </si>
+  <si>
+    <t>CP3_RTD_Avg</t>
+  </si>
+  <si>
+    <t>CP4_RTD_Avg</t>
+  </si>
+  <si>
+    <t>J1_V_Avg</t>
+  </si>
+  <si>
+    <t>J2_V_Avg</t>
+  </si>
+  <si>
+    <t>J3_V_Avg</t>
+  </si>
+  <si>
+    <t>J4_V_Avg</t>
+  </si>
+  <si>
+    <t>J1_I_Avg</t>
+  </si>
+  <si>
+    <t>J2_I_Avg</t>
+  </si>
+  <si>
+    <t>J3_I_Avg</t>
+  </si>
+  <si>
+    <t>J4_I_Avg</t>
+  </si>
+  <si>
+    <t>J1_RTD_Avg</t>
+  </si>
+  <si>
+    <t>J2_RTD_Avg</t>
+  </si>
+  <si>
+    <t>J3_RTD_Avg</t>
+  </si>
+  <si>
+    <t>J4_RTD_Avg</t>
+  </si>
+  <si>
+    <t>MM1_V_Avg</t>
+  </si>
+  <si>
+    <t>MM2_V_Avg</t>
+  </si>
+  <si>
+    <t>MM3_V_Avg</t>
+  </si>
+  <si>
+    <t>MM4_V_Avg</t>
+  </si>
+  <si>
+    <t>MM1_I_Avg</t>
+  </si>
+  <si>
+    <t>MM2_I_Avg</t>
+  </si>
+  <si>
+    <t>MM3_I_Avg</t>
+  </si>
+  <si>
+    <t>MM4_I_Avg</t>
+  </si>
+  <si>
+    <t>MM1_RTD_Avg</t>
+  </si>
+  <si>
+    <t>MM2_RTD_Avg</t>
+  </si>
+  <si>
+    <t>MM3_RTD_Avg</t>
+  </si>
+  <si>
+    <t>MM4_RTD_Avg</t>
+  </si>
+  <si>
+    <t>CM1_V_Avg</t>
+  </si>
+  <si>
+    <t>CM2_V_Avg</t>
+  </si>
+  <si>
+    <t>CM3_V_Avg</t>
+  </si>
+  <si>
+    <t>CM4_V_Avg</t>
+  </si>
+  <si>
+    <t>CM1_I_Avg</t>
+  </si>
+  <si>
+    <t>CM2_I_Avg</t>
+  </si>
+  <si>
+    <t>CM3_I_Avg</t>
+  </si>
+  <si>
+    <t>CM4_I_Avg</t>
+  </si>
+  <si>
+    <t>CM1_RTD_Avg</t>
+  </si>
+  <si>
+    <t>CM2_RTD_Avg</t>
+  </si>
+  <si>
+    <t>CM3_RTD_Avg</t>
+  </si>
+  <si>
+    <t>CM4_RTD_Avg</t>
+  </si>
+  <si>
+    <t>HP1_V_Avg</t>
+  </si>
+  <si>
+    <t>HP2_V_Avg</t>
+  </si>
+  <si>
+    <t>HP3_V_Avg</t>
+  </si>
+  <si>
+    <t>HP4_V_Avg</t>
+  </si>
+  <si>
+    <t>HP1_I_Avg</t>
+  </si>
+  <si>
+    <t>HP2_I_Avg</t>
+  </si>
+  <si>
+    <t>HP3_I_Avg</t>
+  </si>
+  <si>
+    <t>HP4_I_Avg</t>
+  </si>
+  <si>
+    <t>HP1_RTD_Avg</t>
+  </si>
+  <si>
+    <t>HP2_RTD_Avg</t>
+  </si>
+  <si>
+    <t>HP3_RTD_Avg</t>
+  </si>
+  <si>
+    <t>HP4_RTD_Avg</t>
+  </si>
+  <si>
+    <t>HM1_V_Avg</t>
+  </si>
+  <si>
+    <t>HM2_V_Avg</t>
+  </si>
+  <si>
+    <t>HM3_V_Avg</t>
+  </si>
+  <si>
+    <t>HM4_V_Avg</t>
+  </si>
+  <si>
+    <t>HM1_I_Avg</t>
+  </si>
+  <si>
+    <t>HM2_I_Avg</t>
+  </si>
+  <si>
+    <t>HM3_I_Avg</t>
+  </si>
+  <si>
+    <t>HM4_I_Avg</t>
+  </si>
+  <si>
+    <t>HM1_RTD_Avg</t>
+  </si>
+  <si>
+    <t>HM2_RTD_Avg</t>
+  </si>
+  <si>
+    <t>HM3_RTD_Avg</t>
+  </si>
+  <si>
+    <t>HM4_RTD_Avg</t>
   </si>
 </sst>
 </file>
@@ -343,10 +667,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,11 +988,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF08238-1BCF-45FD-B6E5-AADE95A9763E}">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L73" sqref="L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2691,6 +3018,355 @@
         <v>12</v>
       </c>
     </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PVLT/module_coefficients.xlsx
+++ b/PVLT/module_coefficients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmdevil\Documents\Jupyter Notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02FEB15-B73D-4146-93D5-F8A25AD0A10B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80ACF0E-1F1C-45C0-B18E-A39CDBA5FB06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="2280" windowWidth="21510" windowHeight="11385" xr2:uid="{C5C9D0E0-BDEA-4C04-AF05-9C2A3E34F4E1}"/>
+    <workbookView xWindow="30780" yWindow="2265" windowWidth="22215" windowHeight="11385" xr2:uid="{C5C9D0E0-BDEA-4C04-AF05-9C2A3E34F4E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="200">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -278,9 +278,6 @@
     <t>str_len</t>
   </si>
   <si>
-    <t>2020-12-31 23:00:00-07:00</t>
-  </si>
-  <si>
     <t>2018-05-24 00:00:00-07:00</t>
   </si>
   <si>
@@ -624,13 +621,25 @@
   </si>
   <si>
     <t>HM4_RTD_Avg</t>
+  </si>
+  <si>
+    <t>2021-04-30 23:00:00-07:00</t>
+  </si>
+  <si>
+    <t>2018-01-30 00:00:00-07:00</t>
+  </si>
+  <si>
+    <t>2019-05-09 00:00:00-07:00</t>
+  </si>
+  <si>
+    <t>2020-04-03 00:00:00-007:0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,6 +651,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -991,8 +1006,8 @@
   <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L73" sqref="L73"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1013,16 +1028,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>56</v>
@@ -1031,13 +1046,13 @@
         <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2772,61 +2787,61 @@
       <c r="A56" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="2">
-        <v>43244</v>
+      <c r="B56" t="s">
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
-      </c>
-      <c r="D56" s="2">
-        <v>43130</v>
-      </c>
-      <c r="E56" s="2">
-        <v>43131</v>
-      </c>
-      <c r="G56" s="2">
-        <v>43924</v>
-      </c>
-      <c r="H56" s="2">
-        <v>43594</v>
-      </c>
-      <c r="I56" s="2">
-        <v>43130</v>
-      </c>
-      <c r="J56" s="2">
-        <v>43131</v>
+        <v>81</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="2">
-        <v>44316</v>
+      <c r="B57" t="s">
+        <v>196</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
-      </c>
-      <c r="D57" s="2">
-        <v>44316</v>
-      </c>
-      <c r="E57" s="2">
-        <v>44316</v>
-      </c>
-      <c r="F57" s="2">
-        <v>44316</v>
-      </c>
-      <c r="G57" s="2">
-        <v>44316</v>
-      </c>
-      <c r="H57" s="2">
-        <v>44316</v>
-      </c>
-      <c r="I57" s="2">
-        <v>44316</v>
-      </c>
-      <c r="J57" s="2">
-        <v>44316</v>
+        <v>196</v>
+      </c>
+      <c r="D57" t="s">
+        <v>196</v>
+      </c>
+      <c r="E57" t="s">
+        <v>196</v>
+      </c>
+      <c r="F57" t="s">
+        <v>196</v>
+      </c>
+      <c r="G57" t="s">
+        <v>196</v>
+      </c>
+      <c r="H57" t="s">
+        <v>196</v>
+      </c>
+      <c r="I57" t="s">
+        <v>196</v>
+      </c>
+      <c r="J57" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3020,354 +3035,355 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/PVLT/module_coefficients.xlsx
+++ b/PVLT/module_coefficients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmdevil\Documents\Jupyter Notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80ACF0E-1F1C-45C0-B18E-A39CDBA5FB06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24186B89-106E-4B4E-BCD4-8BF9E38F3BB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30780" yWindow="2265" windowWidth="22215" windowHeight="11385" xr2:uid="{C5C9D0E0-BDEA-4C04-AF05-9C2A3E34F4E1}"/>
+    <workbookView xWindow="3690" yWindow="1575" windowWidth="22215" windowHeight="11385" xr2:uid="{C5C9D0E0-BDEA-4C04-AF05-9C2A3E34F4E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="205">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -633,6 +633,21 @@
   </si>
   <si>
     <t>2020-04-03 00:00:00-007:0</t>
+  </si>
+  <si>
+    <t>table_name</t>
+  </si>
+  <si>
+    <t>PVLT_Can_Han_Canadian_Hanwha</t>
+  </si>
+  <si>
+    <t>dbo.PVLT_Pan_LG_Panasonic_LG</t>
+  </si>
+  <si>
+    <t>dbo.PVLT_TrinaJinko_Jinko</t>
+  </si>
+  <si>
+    <t>dbo.PVLT_MissionSolar_MissionSolar</t>
   </si>
 </sst>
 </file>
@@ -1003,11 +1018,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF08238-1BCF-45FD-B6E5-AADE95A9763E}">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3382,6 +3397,35 @@
         <v>195</v>
       </c>
     </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B76" t="s">
+        <v>202</v>
+      </c>
+      <c r="C76" t="s">
+        <v>202</v>
+      </c>
+      <c r="D76" t="s">
+        <v>201</v>
+      </c>
+      <c r="E76" t="s">
+        <v>201</v>
+      </c>
+      <c r="G76" t="s">
+        <v>203</v>
+      </c>
+      <c r="H76" t="s">
+        <v>204</v>
+      </c>
+      <c r="I76" t="s">
+        <v>201</v>
+      </c>
+      <c r="J76" t="s">
+        <v>201</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PVLT/module_coefficients.xlsx
+++ b/PVLT/module_coefficients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmdevil\Documents\Jupyter Notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24186B89-106E-4B4E-BCD4-8BF9E38F3BB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2B0BBA-0191-4F76-9993-245EF598110C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="1575" windowWidth="22215" windowHeight="11385" xr2:uid="{C5C9D0E0-BDEA-4C04-AF05-9C2A3E34F4E1}"/>
+    <workbookView xWindow="4455" yWindow="1935" windowWidth="21600" windowHeight="11385" xr2:uid="{C5C9D0E0-BDEA-4C04-AF05-9C2A3E34F4E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="208">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -648,6 +648,15 @@
   </si>
   <si>
     <t>dbo.PVLT_MissionSolar_MissionSolar</t>
+  </si>
+  <si>
+    <t>ratio_lower</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>ratio_upper</t>
   </si>
 </sst>
 </file>
@@ -1018,11 +1027,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF08238-1BCF-45FD-B6E5-AADE95A9763E}">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3426,6 +3435,70 @@
         <v>201</v>
       </c>
     </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B77">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C77">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D77">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E77">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F77" t="s">
+        <v>206</v>
+      </c>
+      <c r="G77">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H77">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I77">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J77">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B78">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="C78">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D78">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E78">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F78" t="s">
+        <v>206</v>
+      </c>
+      <c r="G78">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H78">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I78">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J78">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PVLT/module_coefficients.xlsx
+++ b/PVLT/module_coefficients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmdevil\Documents\Jupyter Notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2B0BBA-0191-4F76-9993-245EF598110C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCE4562-01BA-4CFB-953C-C6932E83430B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="1935" windowWidth="21600" windowHeight="11385" xr2:uid="{C5C9D0E0-BDEA-4C04-AF05-9C2A3E34F4E1}"/>
+    <workbookView xWindow="2745" yWindow="2535" windowWidth="21600" windowHeight="11385" xr2:uid="{C5C9D0E0-BDEA-4C04-AF05-9C2A3E34F4E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -623,18 +623,12 @@
     <t>HM4_RTD_Avg</t>
   </si>
   <si>
-    <t>2021-04-30 23:00:00-07:00</t>
-  </si>
-  <si>
     <t>2018-01-30 00:00:00-07:00</t>
   </si>
   <si>
     <t>2019-05-09 00:00:00-07:00</t>
   </si>
   <si>
-    <t>2020-04-03 00:00:00-007:0</t>
-  </si>
-  <si>
     <t>table_name</t>
   </si>
   <si>
@@ -657,6 +651,12 @@
   </si>
   <si>
     <t>ratio_upper</t>
+  </si>
+  <si>
+    <t>2021-06-01 00:00:00-07:00</t>
+  </si>
+  <si>
+    <t>2020-04-03 00:00:00-07:00</t>
   </si>
 </sst>
 </file>
@@ -686,15 +686,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -702,17 +726,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1030,8 +1073,8 @@
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1272,7 +1315,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8">
@@ -1304,7 +1347,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B9">
@@ -1336,7 +1379,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B10">
@@ -1368,7 +1411,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -1400,7 +1443,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B12">
@@ -1432,7 +1475,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B13">
@@ -1464,7 +1507,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B14">
@@ -1496,7 +1539,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B15">
@@ -1528,7 +1571,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B16">
@@ -1560,7 +1603,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B17">
@@ -1592,7 +1635,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B18">
@@ -1624,7 +1667,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B19">
@@ -1656,7 +1699,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B20">
@@ -1688,7 +1731,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B21">
@@ -1720,7 +1763,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B22">
@@ -1752,7 +1795,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B23">
@@ -1784,7 +1827,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B24">
@@ -1816,7 +1859,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B25">
@@ -1848,7 +1891,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B26">
@@ -1880,7 +1923,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B27">
@@ -1912,7 +1955,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B28">
@@ -1944,7 +1987,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B29">
@@ -1976,7 +2019,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B30">
@@ -2008,7 +2051,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B31">
@@ -2040,7 +2083,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B32">
@@ -2072,7 +2115,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B33">
@@ -2104,7 +2147,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B34">
@@ -2136,7 +2179,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B35">
@@ -2168,7 +2211,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B36">
@@ -2200,7 +2243,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B37">
@@ -2232,7 +2275,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B38">
@@ -2264,7 +2307,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B39">
@@ -2296,7 +2339,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B40">
@@ -2328,7 +2371,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B41">
@@ -2360,7 +2403,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B42">
@@ -2392,7 +2435,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B43">
@@ -2424,14 +2467,14 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B44">
         <v>10.35</v>
       </c>
       <c r="C44">
-        <v>5.97</v>
+        <v>5.9269999999999996</v>
       </c>
       <c r="D44">
         <v>9.1920000000000002</v>
@@ -2456,7 +2499,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B45">
@@ -2488,7 +2531,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B46">
@@ -2520,7 +2563,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B47">
@@ -2552,7 +2595,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B48">
@@ -2584,7 +2627,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B49">
@@ -2616,7 +2659,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B50">
@@ -2648,7 +2691,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B51">
@@ -2680,7 +2723,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B52">
@@ -2712,7 +2755,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B53">
@@ -2744,7 +2787,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B54">
@@ -2776,7 +2819,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B55">
@@ -2818,22 +2861,22 @@
         <v>81</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="I56" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2841,31 +2884,31 @@
         <v>74</v>
       </c>
       <c r="B57" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="C57" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="D57" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="E57" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="F57" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="G57" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="H57" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="I57" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="J57" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3408,36 +3451,36 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B76" t="s">
         <v>200</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
+        <v>200</v>
+      </c>
+      <c r="D76" t="s">
+        <v>199</v>
+      </c>
+      <c r="E76" t="s">
+        <v>199</v>
+      </c>
+      <c r="G76" t="s">
+        <v>201</v>
+      </c>
+      <c r="H76" t="s">
         <v>202</v>
       </c>
-      <c r="C76" t="s">
-        <v>202</v>
-      </c>
-      <c r="D76" t="s">
-        <v>201</v>
-      </c>
-      <c r="E76" t="s">
-        <v>201</v>
-      </c>
-      <c r="G76" t="s">
-        <v>203</v>
-      </c>
-      <c r="H76" t="s">
-        <v>204</v>
-      </c>
       <c r="I76" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J76" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B77">
         <v>7.0000000000000001E-3</v>
@@ -3452,7 +3495,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="F77" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G77">
         <v>6.0000000000000001E-3</v>
@@ -3469,7 +3512,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B78">
         <v>1.2999999999999999E-2</v>
@@ -3484,7 +3527,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="F78" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G78">
         <v>1.0999999999999999E-2</v>

--- a/PVLT/module_coefficients.xlsx
+++ b/PVLT/module_coefficients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmdevil\Documents\Jupyter Notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCE4562-01BA-4CFB-953C-C6932E83430B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8771F9F0-EBF9-4A8A-A3AF-FED68239BDCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="2535" windowWidth="21600" windowHeight="11385" xr2:uid="{C5C9D0E0-BDEA-4C04-AF05-9C2A3E34F4E1}"/>
+    <workbookView xWindow="4050" yWindow="780" windowWidth="14400" windowHeight="14580" xr2:uid="{C5C9D0E0-BDEA-4C04-AF05-9C2A3E34F4E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1073,8 +1073,8 @@
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2695,31 +2695,31 @@
         <v>48</v>
       </c>
       <c r="B51">
-        <v>2E-3</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="C51">
-        <v>1.81E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="D51">
-        <v>3.3370000000000001E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="E51">
-        <v>3.9100000000000003E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="F51">
-        <v>4.2329999999999998E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="G51">
-        <v>5.5960000000000003E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="H51">
-        <v>4.4209999999999996E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="I51">
-        <v>3.764E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="J51">
-        <v>4.3969999999999999E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3088,7 +3088,7 @@
         <v>12</v>
       </c>
       <c r="G63">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H63">
         <v>12</v>

--- a/PVLT/module_coefficients.xlsx
+++ b/PVLT/module_coefficients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmdevil\Documents\Jupyter Notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8771F9F0-EBF9-4A8A-A3AF-FED68239BDCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF98DF6-40AF-47FD-B6D7-A03B0435DDC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="780" windowWidth="14400" windowHeight="14580" xr2:uid="{C5C9D0E0-BDEA-4C04-AF05-9C2A3E34F4E1}"/>
+    <workbookView xWindow="12270" yWindow="915" windowWidth="13545" windowHeight="13770" xr2:uid="{C5C9D0E0-BDEA-4C04-AF05-9C2A3E34F4E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -686,7 +686,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -717,8 +717,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -741,11 +777,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -756,6 +878,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1074,7 +1212,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
+      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1090,35 +1228,35 @@
     <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="16" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1186,35 +1324,35 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1319,10 +1457,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.15</v>
+        <v>10.146299963268101</v>
       </c>
       <c r="C8">
-        <v>5.87</v>
+        <v>5.8652804107438303</v>
       </c>
       <c r="D8">
         <v>9.033005897642937</v>
@@ -1351,10 +1489,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>39.94</v>
+        <v>39.936656872755897</v>
       </c>
       <c r="C9">
-        <v>69.97</v>
+        <v>69.763047859328495</v>
       </c>
       <c r="D9">
         <v>37.842822047947166</v>
@@ -1383,10 +1521,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.64</v>
+        <v>9.6354621676364705</v>
       </c>
       <c r="C10">
-        <v>5.48</v>
+        <v>5.4819585730357501</v>
       </c>
       <c r="D10">
         <v>8.5289860741088912</v>
@@ -1415,10 +1553,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.479999999999997</v>
+        <v>32.4769506418627</v>
       </c>
       <c r="C11">
-        <v>57.72</v>
+        <v>57.721285869206298</v>
       </c>
       <c r="D11">
         <v>30.690898450073995</v>
@@ -1447,383 +1585,383 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.0600000000000003E-4</v>
+        <v>7.0647528474723602E-4</v>
       </c>
       <c r="C12">
-        <v>7.1100000000000004E-4</v>
+        <v>7.1071749431029997E-4</v>
       </c>
       <c r="D12">
-        <v>4.6459162474106086E-2</v>
+        <v>4.6459162474106101E-4</v>
       </c>
       <c r="E12">
-        <v>5.8044155743805712E-2</v>
+        <v>5.8044155743805699E-4</v>
       </c>
       <c r="F12">
-        <v>7.6636578019148388E-2</v>
+        <v>7.6636578019148398E-4</v>
       </c>
       <c r="G12">
-        <v>4.562238772514484E-2</v>
+        <v>4.5622387725144798E-4</v>
       </c>
       <c r="H12">
-        <v>8.0862214814061251E-2</v>
+        <v>8.08622148140613E-4</v>
       </c>
       <c r="I12">
-        <v>9.3570638322362953E-2</v>
+        <v>9.3570638322363004E-4</v>
       </c>
       <c r="J12">
-        <v>7.9468671929132345E-2</v>
+        <v>7.9468671929132297E-4</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>3.2279999999999999E-4</v>
+        <v>-0.111204</v>
       </c>
       <c r="C13">
-        <v>3.836E-4</v>
+        <v>-0.17186499999999999</v>
       </c>
       <c r="D13">
-        <v>-1.4896948184424072E-2</v>
+        <v>-0.11110784159713105</v>
       </c>
       <c r="E13">
-        <v>2.2143787062669932E-4</v>
+        <v>-0.11507892602184588</v>
       </c>
       <c r="F13">
-        <v>2.6446570317925404E-2</v>
+        <v>-0.13551112567498555</v>
       </c>
       <c r="G13">
-        <v>-2.276772324864253E-2</v>
+        <v>-0.11637477518317502</v>
       </c>
       <c r="H13">
-        <v>2.7009089516226652E-2</v>
+        <v>-0.1092508087783598</v>
       </c>
       <c r="I13">
-        <v>3.6043291953508694E-2</v>
+        <v>-0.11007794529358614</v>
       </c>
       <c r="J13">
-        <v>3.1553788883992864E-2</v>
+        <v>-0.10916958262042041</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>1.0142789999999999</v>
+        <v>3.2279918920421802E-4</v>
       </c>
       <c r="C14">
-        <v>0.994695</v>
+        <v>3.8358596527399602E-4</v>
       </c>
       <c r="D14">
-        <v>1.0029113332431239</v>
+        <v>-1.4896948184424101E-4</v>
       </c>
       <c r="E14">
-        <v>1.0030799409538318</v>
+        <v>2.2143787062669932E-4</v>
       </c>
       <c r="F14">
-        <v>1.0068139733095545</v>
+        <v>2.64465703179254E-4</v>
       </c>
       <c r="G14">
-        <v>0.99363516024173748</v>
+        <v>-2.2767723248642499E-4</v>
       </c>
       <c r="H14">
-        <v>1.0080369827644406</v>
+        <v>2.7009089516226702E-4</v>
       </c>
       <c r="I14">
-        <v>1.0082122250687098</v>
+        <v>3.6043291953508701E-4</v>
       </c>
       <c r="J14">
-        <v>1.0119150658955873</v>
+        <v>3.1553788883992902E-4</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-1.4279999999999999E-2</v>
+        <v>-0.1185716</v>
       </c>
       <c r="C15">
-        <v>5.3049999999999998E-3</v>
+        <v>-0.16898969999999999</v>
       </c>
       <c r="D15">
-        <v>-2.9113332431238677E-3</v>
+        <v>-0.11713865135321147</v>
       </c>
       <c r="E15">
-        <v>-3.0799409538318869E-3</v>
+        <v>-0.12383487504758142</v>
       </c>
       <c r="F15">
-        <v>-6.8139733095544108E-3</v>
+        <v>-0.14444633301122389</v>
       </c>
       <c r="G15">
-        <v>6.3648397582626382E-3</v>
+        <v>-0.12426087716906078</v>
       </c>
       <c r="H15">
-        <v>-8.0369827644406148E-3</v>
+        <v>-0.11962893090645088</v>
       </c>
       <c r="I15">
-        <v>-8.2122250687097845E-3</v>
+        <v>-0.11679869636424194</v>
       </c>
       <c r="J15">
-        <v>-1.1915065895587197E-2</v>
+        <v>-0.12030435914428955</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>-0.111204</v>
+        <v>1.0142789999999999</v>
       </c>
       <c r="C16">
-        <v>-0.17186499999999999</v>
+        <v>0.994695</v>
       </c>
       <c r="D16">
-        <v>-0.11110784159713105</v>
+        <v>1.0029113332431239</v>
       </c>
       <c r="E16">
-        <v>-0.11507892602184588</v>
+        <v>1.0030799409538318</v>
       </c>
       <c r="F16">
-        <v>-0.13551112567498555</v>
+        <v>1.0068139733095545</v>
       </c>
       <c r="G16">
-        <v>-0.11637477518317502</v>
+        <v>0.99363516024173748</v>
       </c>
       <c r="H16">
-        <v>-0.1092508087783598</v>
+        <v>1.0080369827644406</v>
       </c>
       <c r="I16">
-        <v>-0.11007794529358614</v>
+        <v>1.0082122250687098</v>
       </c>
       <c r="J16">
-        <v>-0.10916958262042041</v>
+        <v>1.0119150658955873</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-1.4279999999999999E-2</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>5.3049999999999998E-3</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>-2.9113332431238677E-3</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>-3.0799409538318869E-3</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>-6.8139733095544108E-3</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>6.3648397582626382E-3</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>-8.0369827644406148E-3</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>-8.2122250687097845E-3</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>-1.1915065895587197E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>-0.1185716</v>
+        <v>-0.40033000000000002</v>
       </c>
       <c r="C18">
-        <v>-0.16898969999999999</v>
+        <v>-0.15253</v>
       </c>
       <c r="D18">
-        <v>-0.11713865135321147</v>
+        <v>1.7144879833631783E-2</v>
       </c>
       <c r="E18">
-        <v>-0.12383487504758142</v>
+        <v>-2.6913183210809509E-2</v>
       </c>
       <c r="F18">
-        <v>-0.14444633301122389</v>
+        <v>-0.23184721599003474</v>
       </c>
       <c r="G18">
-        <v>-0.12426087716906078</v>
+        <v>8.747888373881324E-2</v>
       </c>
       <c r="H18">
-        <v>-0.11962893090645088</v>
+        <v>-0.18743285509024865</v>
       </c>
       <c r="I18">
-        <v>-0.11679869636424194</v>
+        <v>-0.22019041827027283</v>
       </c>
       <c r="J18">
-        <v>-0.12030435914428955</v>
+        <v>-0.29876342782759802</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>-14.7721</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>-15.837999999999999</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>-7.836427416624308</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>-8.3133612577974194</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>-13.85816523654243</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>-5.2405947453958763</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>-10.609909501366657</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>-10.433714755733615</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>-12.830938840833163</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>-3.328148E-3</v>
+        <v>0.96</v>
       </c>
       <c r="C20">
-        <v>-2.5440979999999998E-3</v>
+        <v>0.97</v>
       </c>
       <c r="D20">
-        <v>-3.9656919999999998E-3</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="E20">
-        <v>-4.0022859999999999E-3</v>
+        <v>1.06</v>
       </c>
       <c r="F20">
-        <v>-3.500581E-3</v>
+        <v>0.93</v>
       </c>
       <c r="G20">
-        <v>-4.3192830000000002E-3</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H20">
-        <v>-3.5229329999999998E-3</v>
+        <v>1.04</v>
       </c>
       <c r="I20">
-        <v>-3.4524159999999998E-3</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J20">
-        <v>-3.4388959999999999E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B21">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1.0900000000000001</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>1.1299999999999999</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1.1499999999999999</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22">
-        <v>-0.40033000000000002</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>-0.15253</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>1.7144879833631783E-2</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>-2.6913183210809509E-2</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>-0.23184721599003474</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>8.747888373881324E-2</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>-0.18743285509024865</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>-0.22019041827027283</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>-0.29876342782759802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B23">
-        <v>-14.7721</v>
+        <v>-1.0414787000000001</v>
       </c>
       <c r="C23">
-        <v>-15.837999999999999</v>
+        <v>-0.80501811582211291</v>
       </c>
       <c r="D23">
-        <v>-7.836427416624308</v>
+        <v>-1.0380685122073607</v>
       </c>
       <c r="E23">
-        <v>-8.3133612577974194</v>
+        <v>-1.0816661609972003</v>
       </c>
       <c r="F23">
-        <v>-13.85816523654243</v>
+        <v>-1.1986386827907416</v>
       </c>
       <c r="G23">
-        <v>-5.2405947453958763</v>
+        <v>-1.1032829311321373</v>
       </c>
       <c r="H23">
-        <v>-10.609909501366657</v>
+        <v>-0.97105798899783669</v>
       </c>
       <c r="I23">
-        <v>-10.433714755733615</v>
+        <v>-0.90515027129570402</v>
       </c>
       <c r="J23">
-        <v>-12.830938840833163</v>
+        <v>-0.97948299044134712</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2492,7 +2630,7 @@
         <v>9.6649999999999991</v>
       </c>
       <c r="I44">
-        <v>9.5250000000000004</v>
+        <v>9.5239999999999991</v>
       </c>
       <c r="J44">
         <v>9.7560000000000002</v>
@@ -2562,8 +2700,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+    <row r="47" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B47">
@@ -2595,14 +2733,14 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B48">
         <v>0.995</v>
       </c>
       <c r="C48">
-        <v>0.95</v>
+        <v>1.206</v>
       </c>
       <c r="D48">
         <v>1.0229999999999999</v>
@@ -2627,7 +2765,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="20" t="s">
         <v>46</v>
       </c>
       <c r="B49">
@@ -2658,8 +2796,8 @@
         <v>-5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+    <row r="50" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="21" t="s">
         <v>47</v>
       </c>
       <c r="B50">
@@ -2691,7 +2829,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B51">

--- a/PVLT/module_coefficients.xlsx
+++ b/PVLT/module_coefficients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmdevil\Documents\Jupyter Notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF98DF6-40AF-47FD-B6D7-A03B0435DDC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197B5680-97DA-41BB-AADC-5113A89A74D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12270" yWindow="915" windowWidth="13545" windowHeight="13770" xr2:uid="{C5C9D0E0-BDEA-4C04-AF05-9C2A3E34F4E1}"/>
+    <workbookView xWindow="15090" yWindow="990" windowWidth="13545" windowHeight="13770" xr2:uid="{C5C9D0E0-BDEA-4C04-AF05-9C2A3E34F4E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1210,9 +1210,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF08238-1BCF-45FD-B6E5-AADE95A9763E}">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
+      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1937,31 +1937,31 @@
         <v>70</v>
       </c>
       <c r="B23">
-        <v>-1.0414787000000001</v>
+        <v>-3.3281476303707201E-3</v>
       </c>
       <c r="C23">
-        <v>-0.80501811582211291</v>
+        <v>-2.5440984127414398E-3</v>
       </c>
       <c r="D23">
-        <v>-1.0380685122073607</v>
+        <v>-3.9656922651073404E-3</v>
       </c>
       <c r="E23">
-        <v>-1.0816661609972003</v>
+        <v>-4.0022856049998197E-3</v>
       </c>
       <c r="F23">
-        <v>-1.1986386827907416</v>
+        <v>-3.5005807957033202E-3</v>
       </c>
       <c r="G23">
-        <v>-1.1032829311321373</v>
+        <v>-4.3192833730332303E-3</v>
       </c>
       <c r="H23">
-        <v>-0.97105798899783669</v>
+        <v>-3.5229329807558202E-3</v>
       </c>
       <c r="I23">
-        <v>-0.90515027129570402</v>
+        <v>-3.4524162627164799E-3</v>
       </c>
       <c r="J23">
-        <v>-0.97948299044134712</v>
+        <v>-3.4388956141986199E-3</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">

--- a/PVLT/module_coefficients.xlsx
+++ b/PVLT/module_coefficients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmdevil\Documents\Jupyter Notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197B5680-97DA-41BB-AADC-5113A89A74D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED63BC7A-6B8A-48EA-A169-39B458DF09A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15090" yWindow="990" windowWidth="13545" windowHeight="13770" xr2:uid="{C5C9D0E0-BDEA-4C04-AF05-9C2A3E34F4E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C5C9D0E0-BDEA-4C04-AF05-9C2A3E34F4E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="211">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -503,18 +503,6 @@
     <t>MM4_I_Avg</t>
   </si>
   <si>
-    <t>MM1_RTD_Avg</t>
-  </si>
-  <si>
-    <t>MM2_RTD_Avg</t>
-  </si>
-  <si>
-    <t>MM3_RTD_Avg</t>
-  </si>
-  <si>
-    <t>MM4_RTD_Avg</t>
-  </si>
-  <si>
     <t>CM1_V_Avg</t>
   </si>
   <si>
@@ -653,10 +641,31 @@
     <t>ratio_upper</t>
   </si>
   <si>
-    <t>2021-06-01 00:00:00-07:00</t>
-  </si>
-  <si>
     <t>2020-04-03 00:00:00-07:00</t>
+  </si>
+  <si>
+    <t>noct</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>MM1_T_Avg</t>
+  </si>
+  <si>
+    <t>MM2_T_Avg</t>
+  </si>
+  <si>
+    <t>MM4_T_Avg</t>
+  </si>
+  <si>
+    <t>MM3_T_Avg</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00-07:00</t>
   </si>
 </sst>
 </file>
@@ -686,7 +695,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -750,6 +759,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,7 +882,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -894,6 +909,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1208,11 +1225,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF08238-1BCF-45FD-B6E5-AADE95A9763E}">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2861,7 +2878,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B52">
@@ -2999,22 +3016,22 @@
         <v>81</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3022,31 +3039,31 @@
         <v>74</v>
       </c>
       <c r="B57" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C57" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D57" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E57" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F57" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G57" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H57" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I57" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="J57" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3252,7 +3269,7 @@
         <v>124</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3" t="s">
@@ -3262,10 +3279,10 @@
         <v>148</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3282,7 +3299,7 @@
         <v>125</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>137</v>
@@ -3291,10 +3308,10 @@
         <v>149</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -3311,7 +3328,7 @@
         <v>126</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>138</v>
@@ -3320,10 +3337,10 @@
         <v>150</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -3340,7 +3357,7 @@
         <v>127</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>139</v>
@@ -3349,10 +3366,10 @@
         <v>151</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -3369,7 +3386,7 @@
         <v>128</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>140</v>
@@ -3378,10 +3395,10 @@
         <v>152</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -3398,7 +3415,7 @@
         <v>129</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>141</v>
@@ -3407,10 +3424,10 @@
         <v>153</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -3427,7 +3444,7 @@
         <v>130</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>142</v>
@@ -3436,10 +3453,10 @@
         <v>154</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -3456,7 +3473,7 @@
         <v>131</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>143</v>
@@ -3465,10 +3482,10 @@
         <v>155</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -3485,19 +3502,19 @@
         <v>132</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>144</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -3514,19 +3531,19 @@
         <v>133</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>145</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -3543,19 +3560,19 @@
         <v>134</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>146</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -3572,53 +3589,53 @@
         <v>135</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>147</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B76" t="s">
+        <v>196</v>
+      </c>
+      <c r="C76" t="s">
+        <v>196</v>
+      </c>
+      <c r="D76" t="s">
+        <v>195</v>
+      </c>
+      <c r="E76" t="s">
+        <v>195</v>
+      </c>
+      <c r="G76" t="s">
+        <v>197</v>
+      </c>
+      <c r="H76" t="s">
         <v>198</v>
       </c>
-      <c r="B76" t="s">
-        <v>200</v>
-      </c>
-      <c r="C76" t="s">
-        <v>200</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="I76" t="s">
+        <v>195</v>
+      </c>
+      <c r="J76" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="23" t="s">
         <v>199</v>
-      </c>
-      <c r="E76" t="s">
-        <v>199</v>
-      </c>
-      <c r="G76" t="s">
-        <v>201</v>
-      </c>
-      <c r="H76" t="s">
-        <v>202</v>
-      </c>
-      <c r="I76" t="s">
-        <v>199</v>
-      </c>
-      <c r="J76" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="B77">
         <v>7.0000000000000001E-3</v>
@@ -3633,7 +3650,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="F77" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G77">
         <v>6.0000000000000001E-3</v>
@@ -3649,8 +3666,8 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>205</v>
+      <c r="A78" s="23" t="s">
+        <v>201</v>
       </c>
       <c r="B78">
         <v>1.2999999999999999E-2</v>
@@ -3665,7 +3682,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="F78" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G78">
         <v>1.0999999999999999E-2</v>
@@ -3678,6 +3695,84 @@
       </c>
       <c r="J78">
         <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B79">
+        <v>45</v>
+      </c>
+      <c r="C79">
+        <v>44</v>
+      </c>
+      <c r="D79">
+        <v>45</v>
+      </c>
+      <c r="E79">
+        <v>45</v>
+      </c>
+      <c r="H79">
+        <v>44</v>
+      </c>
+      <c r="I79">
+        <v>45</v>
+      </c>
+      <c r="J79">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B80">
+        <v>1.6859999999999999</v>
+      </c>
+      <c r="C80">
+        <v>1.59</v>
+      </c>
+      <c r="D80">
+        <v>1.65</v>
+      </c>
+      <c r="E80">
+        <v>1.65</v>
+      </c>
+      <c r="H80">
+        <v>1.6639999999999999</v>
+      </c>
+      <c r="I80">
+        <v>1.67</v>
+      </c>
+      <c r="J80">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B81">
+        <v>1.016</v>
+      </c>
+      <c r="C81">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="D81">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="E81">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="H81">
+        <v>0.999</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PVLT/module_coefficients.xlsx
+++ b/PVLT/module_coefficients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmdevil\Documents\Jupyter Notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED63BC7A-6B8A-48EA-A169-39B458DF09A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61496B35-983E-4973-84F6-8C61543CBC3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C5C9D0E0-BDEA-4C04-AF05-9C2A3E34F4E1}"/>
+    <workbookView xWindow="405" yWindow="300" windowWidth="13545" windowHeight="14745" xr2:uid="{C5C9D0E0-BDEA-4C04-AF05-9C2A3E34F4E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="223">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Area</t>
   </si>
   <si>
-    <t>Material</t>
-  </si>
-  <si>
     <t>Cells_in_Series</t>
   </si>
   <si>
@@ -158,12 +155,6 @@
     <t>C7</t>
   </si>
   <si>
-    <t>I_L_ref</t>
-  </si>
-  <si>
-    <t>I_o_ref</t>
-  </si>
-  <si>
     <t>R_sh_ref</t>
   </si>
   <si>
@@ -182,12 +173,6 @@
     <t>alpha_sc</t>
   </si>
   <si>
-    <t>a_ref</t>
-  </si>
-  <si>
-    <t>Adjust</t>
-  </si>
-  <si>
     <t>320N1K-A5</t>
   </si>
   <si>
@@ -197,12 +182,6 @@
     <t>VBHN3255A16</t>
   </si>
   <si>
-    <t>SC6K-270P</t>
-  </si>
-  <si>
-    <t>SC6K-275M</t>
-  </si>
-  <si>
     <t>Itek</t>
   </si>
   <si>
@@ -224,24 +203,6 @@
     <t>Q.Peak-G4.1 300</t>
   </si>
   <si>
-    <t>poly-Si</t>
-  </si>
-  <si>
-    <t>N-PERT Si</t>
-  </si>
-  <si>
-    <t>HIT Mono</t>
-  </si>
-  <si>
-    <t>mono-Si</t>
-  </si>
-  <si>
-    <t>mono-Si PERC</t>
-  </si>
-  <si>
-    <t>poly-Si PERC</t>
-  </si>
-  <si>
     <t>Power</t>
   </si>
   <si>
@@ -632,15 +593,6 @@
     <t>dbo.PVLT_MissionSolar_MissionSolar</t>
   </si>
   <si>
-    <t>ratio_lower</t>
-  </si>
-  <si>
-    <t>NaN</t>
-  </si>
-  <si>
-    <t>ratio_upper</t>
-  </si>
-  <si>
     <t>2020-04-03 00:00:00-07:00</t>
   </si>
   <si>
@@ -666,6 +618,90 @@
   </si>
   <si>
     <t>2021-07-01 00:00:00-07:00</t>
+  </si>
+  <si>
+    <t>cec_name</t>
+  </si>
+  <si>
+    <t>SANYO_ELECTRIC_CO_LTD_OF_PANASONIC_GROUP_VBHN325SA16</t>
+  </si>
+  <si>
+    <t>LG_Electronics_Inc__LG320N1K_A5</t>
+  </si>
+  <si>
+    <t>Canadian_Solar_Inc__CS6K_270P</t>
+  </si>
+  <si>
+    <t>CS6K-270P</t>
+  </si>
+  <si>
+    <t>CS6K-275M</t>
+  </si>
+  <si>
+    <t>Canadian_Solar_Inc__CS6K_275M</t>
+  </si>
+  <si>
+    <t>Hanwha_Q_CELLS_Q_PLUS_BFR_G4_1_280</t>
+  </si>
+  <si>
+    <t>Hanwha_Q_Cells_Q_PEAK_G4_1_300</t>
+  </si>
+  <si>
+    <t>Mission_Solar_Energy_MSE300SQ5T</t>
+  </si>
+  <si>
+    <t>Jinko_Solar_Co___Ltd_JKM265P_60</t>
+  </si>
+  <si>
+    <t>Itek_Energy_LLC_iT_360_SE_72</t>
+  </si>
+  <si>
+    <t>cell_type</t>
+  </si>
+  <si>
+    <t>monoSi</t>
+  </si>
+  <si>
+    <t>polySi</t>
+  </si>
+  <si>
+    <t>v_mp</t>
+  </si>
+  <si>
+    <t>i_mp</t>
+  </si>
+  <si>
+    <t>v_oc</t>
+  </si>
+  <si>
+    <t>i_sc</t>
+  </si>
+  <si>
+    <t>beta_voc</t>
+  </si>
+  <si>
+    <t>gamma_pmp</t>
+  </si>
+  <si>
+    <t>Vmpp</t>
+  </si>
+  <si>
+    <t>Impp</t>
+  </si>
+  <si>
+    <t>Voc</t>
+  </si>
+  <si>
+    <t>Bvoc</t>
+  </si>
+  <si>
+    <t>Gampmp</t>
+  </si>
+  <si>
+    <t>Alisc</t>
+  </si>
+  <si>
+    <t>Isc</t>
   </si>
 </sst>
 </file>
@@ -695,7 +731,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -705,12 +741,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,12 +794,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -807,82 +837,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -892,25 +851,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1225,11 +1177,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF08238-1BCF-45FD-B6E5-AADE95A9763E}">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1245,36 +1197,36 @@
     <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>87</v>
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1282,31 +1234,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
         <v>53</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
         <v>54</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
         <v>55</v>
-      </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1342,40 +1294,40 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>3</v>
+      <c r="A4" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>64</v>
+        <v>208</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>65</v>
+        <v>208</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>63</v>
+        <v>209</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>66</v>
+        <v>208</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>67</v>
+        <v>208</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>63</v>
+        <v>209</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>67</v>
+        <v>208</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>68</v>
+        <v>209</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>67</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>60</v>
@@ -1407,7 +1359,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1438,8 +1390,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>69</v>
+      <c r="A7" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="B7">
         <v>320</v>
@@ -1470,2309 +1422,2565 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
+      <c r="A8" s="16" t="s">
+        <v>216</v>
       </c>
       <c r="B8">
-        <v>10.146299963268101</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="C8">
-        <v>5.8652804107438303</v>
+        <v>57.6</v>
       </c>
       <c r="D8">
-        <v>9.033005897642937</v>
+        <v>30.8</v>
       </c>
       <c r="E8">
-        <v>9.2175733450960369</v>
+        <v>31.3</v>
       </c>
       <c r="F8">
-        <v>9.3978078683038113</v>
+        <v>38.94</v>
       </c>
       <c r="G8">
-        <v>8.8794570150155785</v>
+        <v>31.4</v>
       </c>
       <c r="H8">
-        <v>9.1846334367306781</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="I8">
-        <v>9.0905356798804853</v>
+        <v>31.67</v>
       </c>
       <c r="J8">
-        <v>9.3777142816344696</v>
+        <v>32.409999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
+      <c r="A9" s="16" t="s">
+        <v>217</v>
       </c>
       <c r="B9">
-        <v>39.936656872755897</v>
+        <v>9.61</v>
       </c>
       <c r="C9">
-        <v>69.763047859328495</v>
+        <v>5.65</v>
       </c>
       <c r="D9">
-        <v>37.842822047947166</v>
+        <v>8.75</v>
       </c>
       <c r="E9">
-        <v>37.969618585475288</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F9">
-        <v>47.081914788404418</v>
+        <v>9.25</v>
       </c>
       <c r="G9">
-        <v>37.376045770577349</v>
+        <v>8.44</v>
       </c>
       <c r="H9">
-        <v>39.111884495763448</v>
+        <v>9.17</v>
       </c>
       <c r="I9">
-        <v>38.508234295432217</v>
+        <v>8.84</v>
       </c>
       <c r="J9">
-        <v>39.455978047772149</v>
+        <v>9.26</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
+      <c r="A10" s="16" t="s">
+        <v>218</v>
       </c>
       <c r="B10">
-        <v>9.6354621676364705</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="C10">
-        <v>5.4819585730357501</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="D10">
-        <v>8.5289860741088912</v>
+        <v>37.9</v>
       </c>
       <c r="E10">
-        <v>8.7395785980935798</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="F10">
-        <v>8.925077715186795</v>
+        <v>47.87</v>
       </c>
       <c r="G10">
-        <v>8.4107477572013849</v>
+        <v>38.6</v>
       </c>
       <c r="H10">
-        <v>8.7395714870385746</v>
+        <v>40.18</v>
       </c>
       <c r="I10">
-        <v>8.5587268027991268</v>
+        <v>38.97</v>
       </c>
       <c r="J10">
-        <v>8.8887554506151982</v>
+        <v>39.76</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>9</v>
+      <c r="A11" s="16" t="s">
+        <v>222</v>
       </c>
       <c r="B11">
-        <v>32.4769506418627</v>
+        <v>10.19</v>
       </c>
       <c r="C11">
-        <v>57.721285869206298</v>
+        <v>6.03</v>
       </c>
       <c r="D11">
-        <v>30.690898450073995</v>
+        <v>9.32</v>
       </c>
       <c r="E11">
-        <v>30.923929467212673</v>
+        <v>9.31</v>
       </c>
       <c r="F11">
-        <v>38.365086076385509</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="G11">
-        <v>30.369706394187418</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="H11">
-        <v>31.539197964445986</v>
+        <v>9.61</v>
       </c>
       <c r="I11">
-        <v>30.632918004711065</v>
+        <v>9.41</v>
       </c>
       <c r="J11">
-        <v>32.043278712201058</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
+      <c r="A12" s="16" t="s">
+        <v>219</v>
       </c>
       <c r="B12">
-        <v>7.0647528474723602E-4</v>
+        <v>-0.11015999999999999</v>
       </c>
       <c r="C12">
-        <v>7.1071749431029997E-4</v>
+        <v>-0.17399999999999999</v>
       </c>
       <c r="D12">
-        <v>4.6459162474106101E-4</v>
+        <v>-0.11749</v>
       </c>
       <c r="E12">
-        <v>5.8044155743805699E-4</v>
+        <v>-0.11842</v>
       </c>
       <c r="F12">
-        <v>7.6636578019148398E-4</v>
+        <v>-0.18190600000000001</v>
       </c>
       <c r="G12">
-        <v>4.5622387725144798E-4</v>
+        <v>-0.11966</v>
       </c>
       <c r="H12">
-        <v>8.08622148140613E-4</v>
+        <v>-0.12777240000000001</v>
       </c>
       <c r="I12">
-        <v>9.3570638322363004E-4</v>
+        <v>-0.113013</v>
       </c>
       <c r="J12">
-        <v>7.9468671929132297E-4</v>
+        <v>-0.111328</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>14</v>
+      <c r="A13" s="16" t="s">
+        <v>221</v>
       </c>
       <c r="B13">
-        <v>-0.111204</v>
+        <v>3.0569999999999998E-3</v>
       </c>
       <c r="C13">
-        <v>-0.17186499999999999</v>
+        <v>1.81E-3</v>
       </c>
       <c r="D13">
-        <v>-0.11110784159713105</v>
+        <v>4.9395999999999997E-3</v>
       </c>
       <c r="E13">
-        <v>-0.11507892602184588</v>
+        <v>4.9343E-3</v>
       </c>
       <c r="F13">
-        <v>-0.13551112567498555</v>
+        <v>3.8479999999999999E-3</v>
       </c>
       <c r="G13">
-        <v>-0.11637477518317502</v>
+        <v>5.4180000000000001E-3</v>
       </c>
       <c r="H13">
-        <v>-0.1092508087783598</v>
+        <v>4.0362000000000002E-3</v>
       </c>
       <c r="I13">
-        <v>-0.11007794529358614</v>
+        <v>3.764E-3</v>
       </c>
       <c r="J13">
-        <v>-0.10916958262042041</v>
+        <v>3.908E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>11</v>
+      <c r="A14" s="16" t="s">
+        <v>220</v>
       </c>
       <c r="B14">
-        <v>3.2279918920421802E-4</v>
+        <v>-0.37</v>
       </c>
       <c r="C14">
-        <v>3.8358596527399602E-4</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="D14">
-        <v>-1.4896948184424101E-4</v>
+        <v>-0.41</v>
       </c>
       <c r="E14">
-        <v>2.2143787062669932E-4</v>
+        <v>-0.41</v>
       </c>
       <c r="F14">
-        <v>2.64465703179254E-4</v>
+        <v>-0.39</v>
       </c>
       <c r="G14">
-        <v>-2.2767723248642499E-4</v>
+        <v>-0.41</v>
       </c>
       <c r="H14">
-        <v>2.7009089516226702E-4</v>
+        <v>-0.42699999999999999</v>
       </c>
       <c r="I14">
-        <v>3.6043291953508701E-4</v>
+        <v>-0.4</v>
       </c>
       <c r="J14">
-        <v>3.1553788883992902E-4</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B15">
-        <v>-0.1185716</v>
+        <v>10.146299963268101</v>
       </c>
       <c r="C15">
-        <v>-0.16898969999999999</v>
+        <v>5.8652804107438303</v>
       </c>
       <c r="D15">
-        <v>-0.11713865135321147</v>
+        <v>9.033005897642937</v>
       </c>
       <c r="E15">
-        <v>-0.12383487504758142</v>
+        <v>9.2175733450960369</v>
       </c>
       <c r="F15">
-        <v>-0.14444633301122389</v>
+        <v>9.3978078683038113</v>
       </c>
       <c r="G15">
-        <v>-0.12426087716906078</v>
+        <v>8.8794570150155785</v>
       </c>
       <c r="H15">
-        <v>-0.11962893090645088</v>
+        <v>9.1846334367306781</v>
       </c>
       <c r="I15">
-        <v>-0.11679869636424194</v>
+        <v>9.0905356798804853</v>
       </c>
       <c r="J15">
-        <v>-0.12030435914428955</v>
+        <v>9.3777142816344696</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B16">
-        <v>1.0142789999999999</v>
+        <v>39.936656872755897</v>
       </c>
       <c r="C16">
-        <v>0.994695</v>
+        <v>69.763047859328495</v>
       </c>
       <c r="D16">
-        <v>1.0029113332431239</v>
+        <v>37.842822047947166</v>
       </c>
       <c r="E16">
-        <v>1.0030799409538318</v>
+        <v>37.969618585475288</v>
       </c>
       <c r="F16">
-        <v>1.0068139733095545</v>
+        <v>47.081914788404418</v>
       </c>
       <c r="G16">
-        <v>0.99363516024173748</v>
+        <v>37.376045770577349</v>
       </c>
       <c r="H16">
-        <v>1.0080369827644406</v>
+        <v>39.111884495763448</v>
       </c>
       <c r="I16">
-        <v>1.0082122250687098</v>
+        <v>38.508234295432217</v>
       </c>
       <c r="J16">
-        <v>1.0119150658955873</v>
+        <v>39.455978047772149</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>-1.4279999999999999E-2</v>
+        <v>9.6354621676364705</v>
       </c>
       <c r="C17">
-        <v>5.3049999999999998E-3</v>
+        <v>5.4819585730357501</v>
       </c>
       <c r="D17">
-        <v>-2.9113332431238677E-3</v>
+        <v>8.5289860741088912</v>
       </c>
       <c r="E17">
-        <v>-3.0799409538318869E-3</v>
+        <v>8.7395785980935798</v>
       </c>
       <c r="F17">
-        <v>-6.8139733095544108E-3</v>
+        <v>8.925077715186795</v>
       </c>
       <c r="G17">
-        <v>6.3648397582626382E-3</v>
+        <v>8.4107477572013849</v>
       </c>
       <c r="H17">
-        <v>-8.0369827644406148E-3</v>
+        <v>8.7395714870385746</v>
       </c>
       <c r="I17">
-        <v>-8.2122250687097845E-3</v>
+        <v>8.5587268027991268</v>
       </c>
       <c r="J17">
-        <v>-1.1915065895587197E-2</v>
+        <v>8.8887554506151982</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>-0.40033000000000002</v>
+        <v>32.4769506418627</v>
       </c>
       <c r="C18">
-        <v>-0.15253</v>
+        <v>57.721285869206298</v>
       </c>
       <c r="D18">
-        <v>1.7144879833631783E-2</v>
+        <v>30.690898450073995</v>
       </c>
       <c r="E18">
-        <v>-2.6913183210809509E-2</v>
+        <v>30.923929467212673</v>
       </c>
       <c r="F18">
-        <v>-0.23184721599003474</v>
+        <v>38.365086076385509</v>
       </c>
       <c r="G18">
-        <v>8.747888373881324E-2</v>
+        <v>30.369706394187418</v>
       </c>
       <c r="H18">
-        <v>-0.18743285509024865</v>
+        <v>31.539197964445986</v>
       </c>
       <c r="I18">
-        <v>-0.22019041827027283</v>
+        <v>30.632918004711065</v>
       </c>
       <c r="J18">
-        <v>-0.29876342782759802</v>
+        <v>32.043278712201058</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B19">
-        <v>-14.7721</v>
+        <v>7.0647528474723602E-4</v>
       </c>
       <c r="C19">
-        <v>-15.837999999999999</v>
+        <v>7.1071749431029997E-4</v>
       </c>
       <c r="D19">
-        <v>-7.836427416624308</v>
+        <v>4.6459162474106101E-4</v>
       </c>
       <c r="E19">
-        <v>-8.3133612577974194</v>
+        <v>5.8044155743805699E-4</v>
       </c>
       <c r="F19">
-        <v>-13.85816523654243</v>
+        <v>7.6636578019148398E-4</v>
       </c>
       <c r="G19">
-        <v>-5.2405947453958763</v>
+        <v>4.5622387725144798E-4</v>
       </c>
       <c r="H19">
-        <v>-10.609909501366657</v>
+        <v>8.08622148140613E-4</v>
       </c>
       <c r="I19">
-        <v>-10.433714755733615</v>
+        <v>9.3570638322363004E-4</v>
       </c>
       <c r="J19">
-        <v>-12.830938840833163</v>
+        <v>7.9468671929132297E-4</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>0.96</v>
+        <v>-0.111204</v>
       </c>
       <c r="C20">
-        <v>0.97</v>
+        <v>-0.17186499999999999</v>
       </c>
       <c r="D20">
-        <v>1.0900000000000001</v>
+        <v>-0.11110784159713105</v>
       </c>
       <c r="E20">
-        <v>1.06</v>
+        <v>-0.11507892602184588</v>
       </c>
       <c r="F20">
-        <v>0.93</v>
+        <v>-0.13551112567498555</v>
       </c>
       <c r="G20">
-        <v>1.1299999999999999</v>
+        <v>-0.11637477518317502</v>
       </c>
       <c r="H20">
-        <v>1.04</v>
+        <v>-0.1092508087783598</v>
       </c>
       <c r="I20">
-        <v>1.1499999999999999</v>
+        <v>-0.11007794529358614</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>-0.10916958262042041</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>3.2279918920421802E-4</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>3.8358596527399602E-4</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>-1.4896948184424101E-4</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2.2143787062669932E-4</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>2.64465703179254E-4</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>-2.2767723248642499E-4</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.7009089516226702E-4</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.6043291953508701E-4</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>3.1553788883992902E-4</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.1185716</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.16898969999999999</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-0.11713865135321147</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>-0.12383487504758142</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>-0.14444633301122389</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>-0.12426087716906078</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>-0.11962893090645088</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>-0.11679869636424194</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>-0.12030435914428955</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="B23">
-        <v>-3.3281476303707201E-3</v>
+        <v>1.0142789999999999</v>
       </c>
       <c r="C23">
-        <v>-2.5440984127414398E-3</v>
+        <v>0.994695</v>
       </c>
       <c r="D23">
-        <v>-3.9656922651073404E-3</v>
+        <v>1.0029113332431239</v>
       </c>
       <c r="E23">
-        <v>-4.0022856049998197E-3</v>
+        <v>1.0030799409538318</v>
       </c>
       <c r="F23">
-        <v>-3.5005807957033202E-3</v>
+        <v>1.0068139733095545</v>
       </c>
       <c r="G23">
-        <v>-4.3192833730332303E-3</v>
+        <v>0.99363516024173748</v>
       </c>
       <c r="H23">
-        <v>-3.5229329807558202E-3</v>
+        <v>1.0080369827644406</v>
       </c>
       <c r="I23">
-        <v>-3.4524162627164799E-3</v>
+        <v>1.0082122250687098</v>
       </c>
       <c r="J23">
-        <v>-3.4388956141986199E-3</v>
+        <v>1.0119150658955873</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B24">
-        <v>0.96774800000000005</v>
+        <v>-1.4279999999999999E-2</v>
       </c>
       <c r="C24">
-        <v>0.95159011000000004</v>
+        <v>5.3049999999999998E-3</v>
       </c>
       <c r="D24">
-        <v>0.94653822410567801</v>
+        <v>-2.9113332431238677E-3</v>
       </c>
       <c r="E24">
-        <v>0.94352530994620254</v>
+        <v>-3.0799409538318869E-3</v>
       </c>
       <c r="F24">
-        <v>0.96896006821205294</v>
+        <v>-6.8139733095544108E-3</v>
       </c>
       <c r="G24">
-        <v>0.93612089519021446</v>
+        <v>6.3648397582626382E-3</v>
       </c>
       <c r="H24">
-        <v>0.9457842611829318</v>
+        <v>-8.0369827644406148E-3</v>
       </c>
       <c r="I24">
-        <v>0.95521952644510522</v>
+        <v>-8.2122250687097845E-3</v>
       </c>
       <c r="J24">
-        <v>0.96032160894230001</v>
+        <v>-1.1915065895587197E-2</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B25">
-        <v>2.3425999999999999E-2</v>
+        <v>-0.40033000000000002</v>
       </c>
       <c r="C25">
-        <v>3.5565003999999997E-2</v>
+        <v>-0.15253</v>
       </c>
       <c r="D25">
-        <v>5.4623858183877078E-2</v>
+        <v>1.7144879833631783E-2</v>
       </c>
       <c r="E25">
-        <v>5.2024793212134657E-2</v>
+        <v>-2.6913183210809509E-2</v>
       </c>
       <c r="F25">
-        <v>2.2354002413105797E-2</v>
+        <v>-0.23184721599003474</v>
       </c>
       <c r="G25">
-        <v>6.7806441876485074E-2</v>
+        <v>8.747888373881324E-2</v>
       </c>
       <c r="H25">
-        <v>4.8957054379170049E-2</v>
+        <v>-0.18743285509024865</v>
       </c>
       <c r="I25">
-        <v>3.7481164653953965E-2</v>
+        <v>-0.22019041827027283</v>
       </c>
       <c r="J25">
-        <v>3.1658075972662403E-2</v>
+        <v>-0.29876342782759802</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B26">
-        <v>-8.0000000000000004E-4</v>
+        <v>-14.7721</v>
       </c>
       <c r="C26">
-        <v>-1.762823E-3</v>
+        <v>-15.837999999999999</v>
       </c>
       <c r="D26">
-        <v>-1.5496286807097321E-2</v>
+        <v>-7.836427416624308</v>
       </c>
       <c r="E26">
-        <v>-1.0765057375632972E-2</v>
+        <v>-8.3133612577974194</v>
       </c>
       <c r="F26">
-        <v>-7.2672653761686045E-4</v>
+        <v>-13.85816523654243</v>
       </c>
       <c r="G26">
-        <v>-2.1217760960372496E-2</v>
+        <v>-5.2405947453958763</v>
       </c>
       <c r="H26">
-        <v>-9.6737344471285146E-3</v>
+        <v>-10.609909501366657</v>
       </c>
       <c r="I26">
-        <v>-5.4705746876159171E-3</v>
+        <v>-10.433714755733615</v>
       </c>
       <c r="J26">
-        <v>-3.6219983789501486E-3</v>
+        <v>-12.830938840833163</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B27">
-        <v>-3.6999999999999999E-4</v>
+        <v>0.96</v>
       </c>
       <c r="C27">
-        <v>-3.3466000000000002E-4</v>
+        <v>0.97</v>
       </c>
       <c r="D27">
-        <v>2.0478758960371882E-3</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="E27">
-        <v>8.0580399755160047E-4</v>
+        <v>1.06</v>
       </c>
       <c r="F27">
-        <v>-2.8726085922359831E-4</v>
+        <v>0.93</v>
       </c>
       <c r="G27">
-        <v>3.2201553302847437E-3</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H27">
-        <v>7.7793076657648526E-4</v>
+        <v>1.04</v>
       </c>
       <c r="I27">
-        <v>2.5217855046855597E-4</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J27">
-        <v>9.182763978889996E-5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B28">
-        <v>3.2190000000000002E-5</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>3.1250000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>-1.025080917827731E-4</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>-1.1991933030513262E-5</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>2.2433240060424196E-5</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>-1.893570535930742E-4</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>-1.5695127475234278E-5</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>3.2428668184133517E-6</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>6.0948478136662026E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B29">
-        <v>-3.5741399999999999</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>-3.4056700000000002</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>-3.5870661068503678</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>-3.5859270114168167</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>-3.3360484491025741</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>-3.5516081446248631</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>-3.4630938444804169</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>-3.4978131767596738</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>-3.4895341379091258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B30">
-        <v>-0.11840000000000001</v>
+        <v>-3.3281476303707201E-3</v>
       </c>
       <c r="C30">
-        <v>-0.11234</v>
+        <v>-2.5440984127414398E-3</v>
       </c>
       <c r="D30">
-        <v>-8.0437299446475069E-2</v>
+        <v>-3.9656922651073404E-3</v>
       </c>
       <c r="E30">
-        <v>-9.5464221004132502E-2</v>
+        <v>-4.0022856049998197E-3</v>
       </c>
       <c r="F30">
-        <v>-9.9992534150451742E-2</v>
+        <v>-3.5005807957033202E-3</v>
       </c>
       <c r="G30">
-        <v>-8.0918100351964603E-2</v>
+        <v>-4.3192833730332303E-3</v>
       </c>
       <c r="H30">
-        <v>-0.11249642589696572</v>
+        <v>-3.5229329807558202E-3</v>
       </c>
       <c r="I30">
-        <v>-0.11308356144505309</v>
+        <v>-3.4524162627164799E-3</v>
       </c>
       <c r="J30">
-        <v>-0.12291548201201882</v>
+        <v>-3.4388956141986199E-3</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B31">
-        <v>-1.49207E-9</v>
+        <v>0.96774800000000005</v>
       </c>
       <c r="C31">
-        <v>-2.3345400000000001E-9</v>
+        <v>0.95159011000000004</v>
       </c>
       <c r="D31">
-        <v>-2.5972744355051266E-9</v>
+        <v>0.94653822410567801</v>
       </c>
       <c r="E31">
-        <v>-2.9140744692298633E-9</v>
+        <v>0.94352530994620254</v>
       </c>
       <c r="F31">
-        <v>-1.7893955076369114E-9</v>
+        <v>0.96896006821205294</v>
       </c>
       <c r="G31">
-        <v>-2.4463333333333335E-9</v>
+        <v>0.93612089519021446</v>
       </c>
       <c r="H31">
-        <v>-2.0024092942740603E-9</v>
+        <v>0.9457842611829318</v>
       </c>
       <c r="I31">
-        <v>-1.9459579682089919E-9</v>
+        <v>0.95521952644510522</v>
       </c>
       <c r="J31">
-        <v>-2.0085448716107665E-9</v>
+        <v>0.96032160894230001</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B32">
-        <v>2.33152E-7</v>
+        <v>2.3425999999999999E-2</v>
       </c>
       <c r="C32">
-        <v>3.7606100000000002E-7</v>
+        <v>3.5565003999999997E-2</v>
       </c>
       <c r="D32">
-        <v>4.13527647071279E-7</v>
+        <v>5.4623858183877078E-2</v>
       </c>
       <c r="E32">
-        <v>4.6799878859563537E-7</v>
+        <v>5.2024793212134657E-2</v>
       </c>
       <c r="F32">
-        <v>2.7944549105712965E-7</v>
+        <v>2.2354002413105797E-2</v>
       </c>
       <c r="G32">
-        <v>3.8936666666666663E-7</v>
+        <v>6.7806441876485074E-2</v>
       </c>
       <c r="H32">
-        <v>3.2018407873123144E-7</v>
+        <v>4.8957054379170049E-2</v>
       </c>
       <c r="I32">
-        <v>3.0744908019903285E-7</v>
+        <v>3.7481164653953965E-2</v>
       </c>
       <c r="J32">
-        <v>3.2024165649899768E-7</v>
+        <v>3.1658075972662403E-2</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B33">
-        <v>-1.35142E-5</v>
+        <v>-8.0000000000000004E-4</v>
       </c>
       <c r="C33">
-        <v>-2.1674600000000001E-5</v>
+        <v>-1.762823E-3</v>
       </c>
       <c r="D33">
-        <v>-2.362919402484303E-5</v>
+        <v>-1.5496286807097321E-2</v>
       </c>
       <c r="E33">
-        <v>-2.6967637167774466E-5</v>
+        <v>-1.0765057375632972E-2</v>
       </c>
       <c r="F33">
-        <v>-1.5871753963972548E-5</v>
+        <v>-7.2672653761686045E-4</v>
       </c>
       <c r="G33">
-        <v>-2.2383666666666664E-5</v>
+        <v>-2.1217760960372496E-2</v>
       </c>
       <c r="H33">
-        <v>-1.8603227752493447E-5</v>
+        <v>-9.6737344471285146E-3</v>
       </c>
       <c r="I33">
-        <v>-1.7650413597704952E-5</v>
+        <v>-5.4705746876159171E-3</v>
       </c>
       <c r="J33">
-        <v>-1.8491462632776251E-5</v>
+        <v>-3.6219983789501486E-3</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B34">
-        <v>3.1380600000000002E-4</v>
+        <v>-3.6999999999999999E-4</v>
       </c>
       <c r="C34">
-        <v>4.9717399999999997E-4</v>
+        <v>-3.3466000000000002E-4</v>
       </c>
       <c r="D34">
-        <v>5.4313809262042996E-4</v>
+        <v>2.0478758960371882E-3</v>
       </c>
       <c r="E34">
-        <v>6.2935191711606332E-4</v>
+        <v>8.0580399755160047E-4</v>
       </c>
       <c r="F34">
-        <v>3.6089916869130412E-4</v>
+        <v>-2.8726085922359831E-4</v>
       </c>
       <c r="G34">
-        <v>5.1787999999999997E-4</v>
+        <v>3.2201553302847437E-3</v>
       </c>
       <c r="H34">
-        <v>4.3346645861344515E-4</v>
+        <v>7.7793076657648526E-4</v>
       </c>
       <c r="I34">
-        <v>4.0644192021547138E-4</v>
+        <v>2.5217855046855597E-4</v>
       </c>
       <c r="J34">
-        <v>4.2842505740861E-4</v>
+        <v>9.182763978889996E-5</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B35">
-        <v>-2.4867399999999999E-3</v>
+        <v>3.2190000000000002E-5</v>
       </c>
       <c r="C35">
-        <v>-3.9447340000000001E-3</v>
+        <v>3.1250000000000001E-5</v>
       </c>
       <c r="D35">
-        <v>-4.2742198613583337E-3</v>
+        <v>-1.025080917827731E-4</v>
       </c>
       <c r="E35">
-        <v>-5.1495560714423334E-3</v>
+        <v>-1.1991933030513262E-5</v>
       </c>
       <c r="F35">
-        <v>-2.9998306113894675E-3</v>
+        <v>2.2433240060424196E-5</v>
       </c>
       <c r="G35">
-        <v>-4.1000000000000003E-3</v>
+        <v>-1.893570535930742E-4</v>
       </c>
       <c r="H35">
-        <v>-3.6227919315946666E-3</v>
+        <v>-1.5695127475234278E-5</v>
       </c>
       <c r="I35">
-        <v>-3.1737194604713331E-3</v>
+        <v>3.2428668184133517E-6</v>
       </c>
       <c r="J35">
-        <v>-3.306620171359E-3</v>
+        <v>6.0948478136662026E-6</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>-3.5741399999999999</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>-3.4056700000000002</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>-3.5870661068503678</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>-3.5859270114168167</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>-3.3360484491025741</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>-3.5516081446248631</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>-3.4630938444804169</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>-3.4978131767596738</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>-3.4895341379091258</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>-0.11840000000000001</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>-0.11234</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>-8.0437299446475069E-2</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>-9.5464221004132502E-2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>-9.9992534150451742E-2</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>-8.0918100351964603E-2</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>-0.11249642589696572</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>-0.11308356144505309</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>-0.12291548201201882</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>-1.49207E-9</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>-2.3345400000000001E-9</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>-2.5972744355051266E-9</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>-2.9140744692298633E-9</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>-1.7893955076369114E-9</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>-2.4463333333333335E-9</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>-2.0024092942740603E-9</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>-1.9459579682089919E-9</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>-2.0085448716107665E-9</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>2.33152E-7</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>3.7606100000000002E-7</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>4.13527647071279E-7</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>4.6799878859563537E-7</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>2.7944549105712965E-7</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>3.8936666666666663E-7</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>3.2018407873123144E-7</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>3.0744908019903285E-7</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>3.2024165649899768E-7</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>-1.35142E-5</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>-2.1674600000000001E-5</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>-2.362919402484303E-5</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>-2.6967637167774466E-5</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>-1.5871753963972548E-5</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>-2.2383666666666664E-5</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>-1.8603227752493447E-5</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>-1.7650413597704952E-5</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>-1.8491462632776251E-5</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>3.1380600000000002E-4</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>4.9717399999999997E-4</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>5.4313809262042996E-4</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>6.2935191711606332E-4</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>3.6089916869130412E-4</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>5.1787999999999997E-4</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>4.3346645861344515E-4</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>4.0644192021547138E-4</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>4.2842505740861E-4</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>-2.4867399999999999E-3</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>-3.9447340000000001E-3</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>-4.2742198613583337E-3</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>-5.1495560714423334E-3</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>-2.9998306113894675E-3</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>-4.1000000000000003E-3</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>-3.6227919315946666E-3</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>-3.1737194604713331E-3</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>-3.306620171359E-3</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>41</v>
+      <c r="A44" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B44">
-        <v>10.35</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>5.9269999999999996</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>9.1920000000000002</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>9.2590000000000003</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>9.7070000000000007</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>9.0139999999999993</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>9.6649999999999991</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>9.5239999999999991</v>
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>9.7560000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>42</v>
+      <c r="A45" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B45">
-        <v>1.0086E-11</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>2.1274E-12</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>8.4959399999999999E-11</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>2.02847E-10</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>4.1030800000000002E-11</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>1.7962499999999999E-10</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>4.34089E-11</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>6.7223200000000001E-11</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>3.94701E-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>43</v>
+      <c r="A46" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B46">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>1144</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>604</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>584</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="17" t="s">
-        <v>44</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B47">
-        <v>0.27300000000000002</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>0.248</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>0.215</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.29799999999999999</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>0.248</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>0.28100000000000003</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>0.30299999999999999</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>0.32500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
-        <v>45</v>
+      <c r="A48" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B48">
-        <v>0.995</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>1.206</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>1.0229999999999999</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1.0509999999999999</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>1.075</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>0.98499999999999999</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>1.0309999999999999</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>0.995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
-        <v>46</v>
+      <c r="A49" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B49">
-        <v>-5.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>-1E-4</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>-2.9999999999999997E-4</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>-2.9999999999999997E-4</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>-4.0000000000000002E-4</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>-2.9999999999999997E-4</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>-5.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>-2.9999999999999997E-4</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>-5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="21" t="s">
-        <v>47</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B50">
-        <v>1564</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>3850</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>754</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>1870</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>2484</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>994</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>769</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>1474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
-        <v>48</v>
+      <c r="A51" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="B51">
-        <v>3.0999999999999999E-3</v>
+        <v>32.71</v>
       </c>
       <c r="C51">
-        <v>1.5E-3</v>
+        <v>58.78</v>
       </c>
       <c r="D51">
-        <v>3.5999999999999999E-3</v>
+        <v>31.25</v>
       </c>
       <c r="E51">
-        <v>3.2000000000000002E-3</v>
+        <v>31.35</v>
       </c>
       <c r="F51">
-        <v>3.5000000000000001E-3</v>
+        <v>39.15</v>
       </c>
       <c r="G51">
-        <v>3.3999999999999998E-3</v>
+        <v>30.73</v>
       </c>
       <c r="H51">
-        <v>3.2000000000000002E-3</v>
+        <v>32.74</v>
       </c>
       <c r="I51">
-        <v>3.5999999999999999E-3</v>
+        <v>31.25</v>
       </c>
       <c r="J51">
-        <v>3.2000000000000002E-3</v>
+        <v>32.479999999999997</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
-        <v>49</v>
+      <c r="A52" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="B52">
-        <v>1.476693</v>
+        <v>9.7840000000000007</v>
       </c>
       <c r="C52">
-        <v>2.4298310000000001</v>
+        <v>5.5289999999999999</v>
       </c>
       <c r="D52">
-        <v>1.491708</v>
+        <v>8.64</v>
       </c>
       <c r="E52">
-        <v>1.560398</v>
+        <v>8.7729999999999997</v>
       </c>
       <c r="F52">
-        <v>1.8289489999999999</v>
+        <v>9.1959999999999997</v>
       </c>
       <c r="G52">
-        <v>1.5479309999999999</v>
+        <v>8.4610000000000003</v>
       </c>
       <c r="H52">
-        <v>1.5380039999999999</v>
+        <v>9.1630000000000003</v>
       </c>
       <c r="I52">
-        <v>1.519231</v>
+        <v>8.9610000000000003</v>
       </c>
       <c r="J52">
-        <v>1.5158039999999999</v>
+        <v>9.2349999999999994</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>50</v>
+        <v>212</v>
       </c>
       <c r="B53">
-        <v>4.6872280000000002</v>
+        <v>40.11</v>
       </c>
       <c r="C53">
-        <v>6.0475000000000001E-2</v>
+        <v>70.510000000000005</v>
       </c>
       <c r="D53">
-        <v>4.0890839999999997</v>
+        <v>38.25</v>
       </c>
       <c r="E53">
-        <v>-3.1733039999999999</v>
+        <v>38.130000000000003</v>
       </c>
       <c r="F53">
-        <v>8.0767729999999993</v>
+        <v>47.87</v>
       </c>
       <c r="G53">
-        <v>12.728816</v>
+        <v>37.81</v>
       </c>
       <c r="H53">
-        <v>9.4076350000000009</v>
+        <v>40.33</v>
       </c>
       <c r="I53">
-        <v>9.7626299999999997</v>
+        <v>38.9</v>
       </c>
       <c r="J53">
-        <v>8.5067620000000002</v>
+        <v>40.22</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>72</v>
+      <c r="A54" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="B54">
+        <v>10.35</v>
+      </c>
+      <c r="C54">
+        <v>5.9269999999999996</v>
+      </c>
+      <c r="D54">
+        <v>9.1920000000000002</v>
+      </c>
+      <c r="E54">
+        <v>9.2590000000000003</v>
+      </c>
+      <c r="F54">
+        <v>9.7070000000000007</v>
+      </c>
+      <c r="G54">
+        <v>9.0139999999999993</v>
+      </c>
+      <c r="H54">
+        <v>9.6549999999999994</v>
+      </c>
+      <c r="I54">
+        <v>9.5239999999999991</v>
+      </c>
+      <c r="J54">
+        <v>9.7560000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B55">
+        <v>-0.11020000000000001</v>
+      </c>
+      <c r="C55">
+        <v>-0.13100000000000001</v>
+      </c>
+      <c r="D55">
+        <v>-0.1171</v>
+      </c>
+      <c r="E55">
+        <v>-0.1191</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>-0.1181</v>
+      </c>
+      <c r="H55">
+        <v>-0.12709999999999999</v>
+      </c>
+      <c r="I55">
+        <v>-0.113</v>
+      </c>
+      <c r="J55">
+        <v>-0.1109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B56">
+        <v>-0.39400000000000002</v>
+      </c>
+      <c r="C56">
+        <v>-0.29699999999999999</v>
+      </c>
+      <c r="D56">
+        <v>-0.40400000000000003</v>
+      </c>
+      <c r="E56">
+        <v>-0.41199999999999998</v>
+      </c>
+      <c r="F56">
+        <v>-0.38300000000000001</v>
+      </c>
+      <c r="G56">
+        <v>-0.41799999999999998</v>
+      </c>
+      <c r="H56">
+        <v>-0.39100000000000001</v>
+      </c>
+      <c r="I56">
+        <v>-0.39200000000000002</v>
+      </c>
+      <c r="J56">
+        <v>-0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57">
+        <v>334</v>
+      </c>
+      <c r="C57">
+        <v>1144</v>
+      </c>
+      <c r="D57">
+        <v>227</v>
+      </c>
+      <c r="E57">
+        <v>604</v>
+      </c>
+      <c r="F57">
+        <v>584</v>
+      </c>
+      <c r="G57">
+        <v>268</v>
+      </c>
+      <c r="H57">
+        <v>227</v>
+      </c>
+      <c r="I57">
+        <v>216</v>
+      </c>
+      <c r="J57">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="C58">
+        <v>0.6</v>
+      </c>
+      <c r="D58">
+        <v>0.248</v>
+      </c>
+      <c r="E58">
+        <v>0.215</v>
+      </c>
+      <c r="F58">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="G58">
+        <v>0.248</v>
+      </c>
+      <c r="H58">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="I58">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="J58">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59">
+        <v>0.995</v>
+      </c>
+      <c r="C59">
+        <v>1.206</v>
+      </c>
+      <c r="D59">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="E59">
+        <v>1.04</v>
+      </c>
+      <c r="F59">
+        <v>1.0509999999999999</v>
+      </c>
+      <c r="G59">
+        <v>1.075</v>
+      </c>
+      <c r="H59">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="I59">
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="J59">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+      <c r="C60">
+        <v>-1E-4</v>
+      </c>
+      <c r="D60">
+        <v>-2.9999999999999997E-4</v>
+      </c>
+      <c r="E60">
+        <v>-2.9999999999999997E-4</v>
+      </c>
+      <c r="F60">
+        <v>-4.0000000000000002E-4</v>
+      </c>
+      <c r="G60">
+        <v>-2.9999999999999997E-4</v>
+      </c>
+      <c r="H60">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+      <c r="I60">
+        <v>-2.9999999999999997E-4</v>
+      </c>
+      <c r="J60">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61">
+        <v>1564</v>
+      </c>
+      <c r="C61">
+        <v>3850</v>
+      </c>
+      <c r="D61">
+        <v>754</v>
+      </c>
+      <c r="E61">
+        <v>1870</v>
+      </c>
+      <c r="F61">
+        <v>2484</v>
+      </c>
+      <c r="G61">
+        <v>744</v>
+      </c>
+      <c r="H61">
+        <v>994</v>
+      </c>
+      <c r="I61">
+        <v>769</v>
+      </c>
+      <c r="J61">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="C62">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D62">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="E62">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="F62">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="G62">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="H62">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="I62">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="J62">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63">
         <v>24.228999999999999</v>
       </c>
-      <c r="C54">
+      <c r="C63">
         <v>24.614000000000001</v>
       </c>
-      <c r="D54">
+      <c r="D63">
         <v>31.088000000000001</v>
       </c>
-      <c r="E54">
+      <c r="E63">
         <v>28.824999999999999</v>
       </c>
-      <c r="F54">
+      <c r="F63">
         <v>32.259</v>
       </c>
-      <c r="G54">
+      <c r="G63">
         <v>27.308</v>
       </c>
-      <c r="H54">
+      <c r="H63">
         <v>22.678000000000001</v>
       </c>
-      <c r="I54">
+      <c r="I63">
         <v>21.766999999999999</v>
       </c>
-      <c r="J54">
+      <c r="J63">
         <v>30.536000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B55">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64">
         <v>7.1820000000000004</v>
       </c>
-      <c r="C55">
+      <c r="C64">
         <v>7.8780000000000001</v>
       </c>
-      <c r="D55">
+      <c r="D64">
         <v>4.8650000000000002</v>
       </c>
-      <c r="E55">
+      <c r="E64">
         <v>4.452</v>
       </c>
-      <c r="F55">
+      <c r="F64">
         <v>5.1449999999999996</v>
       </c>
-      <c r="G55">
+      <c r="G64">
         <v>4.9459999999999997</v>
       </c>
-      <c r="H55">
+      <c r="H64">
         <v>6.3520000000000003</v>
       </c>
-      <c r="I55">
+      <c r="I64">
         <v>6.585</v>
       </c>
-      <c r="J55">
+      <c r="J64">
         <v>5.0190000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" t="s">
-        <v>81</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57" t="s">
-        <v>210</v>
-      </c>
-      <c r="C57" t="s">
-        <v>210</v>
-      </c>
-      <c r="D57" t="s">
-        <v>210</v>
-      </c>
-      <c r="E57" t="s">
-        <v>210</v>
-      </c>
-      <c r="F57" t="s">
-        <v>210</v>
-      </c>
-      <c r="G57" t="s">
-        <v>210</v>
-      </c>
-      <c r="H57" t="s">
-        <v>210</v>
-      </c>
-      <c r="I57" t="s">
-        <v>210</v>
-      </c>
-      <c r="J57" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B58">
-        <v>35.049999999999997</v>
-      </c>
-      <c r="C58">
-        <v>35.049999999999997</v>
-      </c>
-      <c r="D58">
-        <v>35.049999999999997</v>
-      </c>
-      <c r="E58">
-        <v>35.049999999999997</v>
-      </c>
-      <c r="F58">
-        <v>35.049999999999997</v>
-      </c>
-      <c r="G58">
-        <v>35.049999999999997</v>
-      </c>
-      <c r="H58">
-        <v>35.049999999999997</v>
-      </c>
-      <c r="I58">
-        <v>35.049999999999997</v>
-      </c>
-      <c r="J58">
-        <v>35.049999999999997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B59">
-        <v>-106.54</v>
-      </c>
-      <c r="C59">
-        <v>-106.54</v>
-      </c>
-      <c r="D59">
-        <v>-106.54</v>
-      </c>
-      <c r="E59">
-        <v>-106.54</v>
-      </c>
-      <c r="F59">
-        <v>-106.54</v>
-      </c>
-      <c r="G59">
-        <v>-106.54</v>
-      </c>
-      <c r="H59">
-        <v>-106.54</v>
-      </c>
-      <c r="I59">
-        <v>-106.54</v>
-      </c>
-      <c r="J59">
-        <v>-106.54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60">
-        <v>35</v>
-      </c>
-      <c r="C60">
-        <v>35</v>
-      </c>
-      <c r="D60">
-        <v>35</v>
-      </c>
-      <c r="E60">
-        <v>35</v>
-      </c>
-      <c r="F60">
-        <v>35</v>
-      </c>
-      <c r="G60">
-        <v>35</v>
-      </c>
-      <c r="H60">
-        <v>35</v>
-      </c>
-      <c r="I60">
-        <v>35</v>
-      </c>
-      <c r="J60">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B61">
-        <v>180</v>
-      </c>
-      <c r="C61">
-        <v>180</v>
-      </c>
-      <c r="D61">
-        <v>180</v>
-      </c>
-      <c r="E61">
-        <v>180</v>
-      </c>
-      <c r="F61">
-        <v>180</v>
-      </c>
-      <c r="G61">
-        <v>180</v>
-      </c>
-      <c r="H61">
-        <v>180</v>
-      </c>
-      <c r="I61">
-        <v>180</v>
-      </c>
-      <c r="J61">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62">
-        <v>1600</v>
-      </c>
-      <c r="C62">
-        <v>1600</v>
-      </c>
-      <c r="D62">
-        <v>1600</v>
-      </c>
-      <c r="E62">
-        <v>1600</v>
-      </c>
-      <c r="F62">
-        <v>1600</v>
-      </c>
-      <c r="G62">
-        <v>1600</v>
-      </c>
-      <c r="H62">
-        <v>1600</v>
-      </c>
-      <c r="I62">
-        <v>1600</v>
-      </c>
-      <c r="J62">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B63">
-        <v>12</v>
-      </c>
-      <c r="C63">
-        <v>12</v>
-      </c>
-      <c r="D63">
-        <v>12</v>
-      </c>
-      <c r="E63">
-        <v>12</v>
-      </c>
-      <c r="G63">
-        <v>12</v>
-      </c>
-      <c r="H63">
-        <v>12</v>
-      </c>
-      <c r="I63">
-        <v>12</v>
-      </c>
-      <c r="J63">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>181</v>
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>182</v>
+        <v>61</v>
+      </c>
+      <c r="B66" t="s">
+        <v>194</v>
+      </c>
+      <c r="C66" t="s">
+        <v>194</v>
+      </c>
+      <c r="D66" t="s">
+        <v>194</v>
+      </c>
+      <c r="E66" t="s">
+        <v>194</v>
+      </c>
+      <c r="F66" t="s">
+        <v>194</v>
+      </c>
+      <c r="G66" t="s">
+        <v>194</v>
+      </c>
+      <c r="H66" t="s">
+        <v>194</v>
+      </c>
+      <c r="I66" t="s">
+        <v>194</v>
+      </c>
+      <c r="J66" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>183</v>
+        <v>62</v>
+      </c>
+      <c r="B67">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="C67">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="D67">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="E67">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="F67">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="G67">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="H67">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="I67">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="J67">
+        <v>35.049999999999997</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>184</v>
+        <v>63</v>
+      </c>
+      <c r="B68">
+        <v>-106.54</v>
+      </c>
+      <c r="C68">
+        <v>-106.54</v>
+      </c>
+      <c r="D68">
+        <v>-106.54</v>
+      </c>
+      <c r="E68">
+        <v>-106.54</v>
+      </c>
+      <c r="F68">
+        <v>-106.54</v>
+      </c>
+      <c r="G68">
+        <v>-106.54</v>
+      </c>
+      <c r="H68">
+        <v>-106.54</v>
+      </c>
+      <c r="I68">
+        <v>-106.54</v>
+      </c>
+      <c r="J68">
+        <v>-106.54</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>185</v>
+        <v>64</v>
+      </c>
+      <c r="B69">
+        <v>35</v>
+      </c>
+      <c r="C69">
+        <v>35</v>
+      </c>
+      <c r="D69">
+        <v>35</v>
+      </c>
+      <c r="E69">
+        <v>35</v>
+      </c>
+      <c r="F69">
+        <v>35</v>
+      </c>
+      <c r="G69">
+        <v>35</v>
+      </c>
+      <c r="H69">
+        <v>35</v>
+      </c>
+      <c r="I69">
+        <v>35</v>
+      </c>
+      <c r="J69">
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>186</v>
+        <v>65</v>
+      </c>
+      <c r="B70">
+        <v>180</v>
+      </c>
+      <c r="C70">
+        <v>180</v>
+      </c>
+      <c r="D70">
+        <v>180</v>
+      </c>
+      <c r="E70">
+        <v>180</v>
+      </c>
+      <c r="F70">
+        <v>180</v>
+      </c>
+      <c r="G70">
+        <v>180</v>
+      </c>
+      <c r="H70">
+        <v>180</v>
+      </c>
+      <c r="I70">
+        <v>180</v>
+      </c>
+      <c r="J70">
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>187</v>
+        <v>66</v>
+      </c>
+      <c r="B71">
+        <v>1600</v>
+      </c>
+      <c r="C71">
+        <v>1600</v>
+      </c>
+      <c r="D71">
+        <v>1600</v>
+      </c>
+      <c r="E71">
+        <v>1600</v>
+      </c>
+      <c r="F71">
+        <v>1600</v>
+      </c>
+      <c r="G71">
+        <v>1600</v>
+      </c>
+      <c r="H71">
+        <v>1600</v>
+      </c>
+      <c r="I71">
+        <v>1600</v>
+      </c>
+      <c r="J71">
+        <v>1600</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>188</v>
+        <v>67</v>
+      </c>
+      <c r="B72">
+        <v>12</v>
+      </c>
+      <c r="C72">
+        <v>12</v>
+      </c>
+      <c r="D72">
+        <v>12</v>
+      </c>
+      <c r="E72">
+        <v>12</v>
+      </c>
+      <c r="G72">
+        <v>12</v>
+      </c>
+      <c r="H72">
+        <v>12</v>
+      </c>
+      <c r="I72">
+        <v>12</v>
+      </c>
+      <c r="J72">
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>165</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="F73" s="3"/>
       <c r="G73" s="3" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>207</v>
+        <v>135</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>209</v>
+        <v>136</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>208</v>
+        <v>137</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B76" t="s">
-        <v>196</v>
-      </c>
-      <c r="C76" t="s">
-        <v>196</v>
-      </c>
-      <c r="D76" t="s">
-        <v>195</v>
-      </c>
-      <c r="E76" t="s">
-        <v>195</v>
-      </c>
-      <c r="G76" t="s">
-        <v>197</v>
-      </c>
-      <c r="H76" t="s">
-        <v>198</v>
-      </c>
-      <c r="I76" t="s">
-        <v>195</v>
-      </c>
-      <c r="J76" t="s">
-        <v>195</v>
+        <v>79</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="B77">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="C77">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D77">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E77">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="F77" t="s">
-        <v>200</v>
-      </c>
-      <c r="G77">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H77">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="I77">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="J77">
-        <v>7.0000000000000001E-3</v>
+      <c r="A77" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="B78">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="C78">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D78">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="E78">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="F78" t="s">
-        <v>200</v>
-      </c>
-      <c r="G78">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="H78">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="I78">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="J78">
-        <v>1.0999999999999999E-2</v>
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B79">
-        <v>45</v>
-      </c>
-      <c r="C79">
-        <v>44</v>
-      </c>
-      <c r="D79">
-        <v>45</v>
-      </c>
-      <c r="E79">
-        <v>45</v>
-      </c>
-      <c r="H79">
-        <v>44</v>
-      </c>
-      <c r="I79">
-        <v>45</v>
-      </c>
-      <c r="J79">
-        <v>45</v>
+        <v>81</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B80">
-        <v>1.6859999999999999</v>
-      </c>
-      <c r="C80">
-        <v>1.59</v>
-      </c>
-      <c r="D80">
-        <v>1.65</v>
-      </c>
-      <c r="E80">
-        <v>1.65</v>
-      </c>
-      <c r="H80">
-        <v>1.6639999999999999</v>
-      </c>
-      <c r="I80">
-        <v>1.67</v>
-      </c>
-      <c r="J80">
-        <v>1.67</v>
+        <v>82</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B85" t="s">
+        <v>183</v>
+      </c>
+      <c r="C85" t="s">
+        <v>183</v>
+      </c>
+      <c r="D85" t="s">
+        <v>182</v>
+      </c>
+      <c r="E85" t="s">
+        <v>182</v>
+      </c>
+      <c r="G85" t="s">
+        <v>184</v>
+      </c>
+      <c r="H85" t="s">
+        <v>185</v>
+      </c>
+      <c r="I85" t="s">
+        <v>182</v>
+      </c>
+      <c r="J85" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B86">
+        <v>45</v>
+      </c>
+      <c r="C86">
+        <v>44</v>
+      </c>
+      <c r="D86">
+        <v>45</v>
+      </c>
+      <c r="E86">
+        <v>45</v>
+      </c>
+      <c r="H86">
+        <v>44</v>
+      </c>
+      <c r="I86">
+        <v>45</v>
+      </c>
+      <c r="J86">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B87">
+        <v>1.6859999999999999</v>
+      </c>
+      <c r="C87">
+        <v>1.59</v>
+      </c>
+      <c r="D87">
+        <v>1.65</v>
+      </c>
+      <c r="E87">
+        <v>1.65</v>
+      </c>
+      <c r="H87">
+        <v>1.6639999999999999</v>
+      </c>
+      <c r="I87">
+        <v>1.67</v>
+      </c>
+      <c r="J87">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B88">
+        <v>1.016</v>
+      </c>
+      <c r="C88">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="D88">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="E88">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="H88">
+        <v>0.999</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B89" t="s">
+        <v>197</v>
+      </c>
+      <c r="C89" t="s">
+        <v>196</v>
+      </c>
+      <c r="D89" t="s">
+        <v>198</v>
+      </c>
+      <c r="E89" t="s">
+        <v>201</v>
+      </c>
+      <c r="F89" t="s">
+        <v>206</v>
+      </c>
+      <c r="G89" t="s">
         <v>205</v>
       </c>
-      <c r="B81">
-        <v>1.016</v>
-      </c>
-      <c r="C81">
-        <v>1.0529999999999999</v>
-      </c>
-      <c r="D81">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="E81">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="H81">
-        <v>0.999</v>
-      </c>
-      <c r="I81">
-        <v>1</v>
-      </c>
-      <c r="J81">
-        <v>1</v>
+      <c r="H89" t="s">
+        <v>204</v>
+      </c>
+      <c r="I89" t="s">
+        <v>202</v>
+      </c>
+      <c r="J89" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
